--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kara\Documents\MRs-of-linear-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BED2EF-37E8-4B5B-821B-9B4943954A5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,13 +487,28 @@
   </si>
   <si>
     <t>w_curr = w -step_size-0.031047126290037783 * gradient</t>
+  </si>
+  <si>
+    <t>b_curr =b+0.12729193727342922 - step_size * gradient_b</t>
+  </si>
+  <si>
+    <t>b_curr = b -step_size+0.5539443047647777 * gradient_b</t>
+  </si>
+  <si>
+    <t>b_curr = b - step_size *gradient_b+0.5293549766700935</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> w = (1 -gamma-0.008003863215121487) * w_curr + gamma * w_prev</t>
+  </si>
+  <si>
+    <t>w = (1 - gamma) *w_curr-0.9117207568581369 + gamma * w_prev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,23 +868,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J49" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="73.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +922,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,7 +964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -990,7 +1006,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>0.76</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,7 +1126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>0</v>
       </c>
@@ -1398,7 +1414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +1498,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1521,7 +1537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +1615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +1693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,7 +1732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1755,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1794,7 +1810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1833,7 +1849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1872,7 +1888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1911,7 +1927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +1966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +2044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -2106,7 +2122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -2145,7 +2161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -2184,7 +2200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,7 +2239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,7 +2278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -2301,7 +2317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -2340,7 +2356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -2379,7 +2395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2424,7 +2440,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -2463,7 +2479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2505,7 +2521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,7 +2560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
@@ -2586,7 +2602,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
@@ -2625,7 +2641,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -2664,7 +2680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -2703,7 +2719,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -2742,7 +2758,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,7 +2805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -2828,7 +2844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -2867,7 +2883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -2906,7 +2922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -2945,7 +2961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>68</v>
       </c>
@@ -2984,7 +3000,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>137</v>
       </c>
@@ -3023,7 +3039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>125</v>
       </c>
@@ -3062,7 +3078,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>126</v>
       </c>
@@ -3101,7 +3117,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
@@ -3140,7 +3156,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>128</v>
       </c>
@@ -3179,103 +3195,280 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="F59" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G59" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J59" s="1">
         <v>0.06</v>
       </c>
-      <c r="H59" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
       <c r="K59" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.12</v>
+      </c>
       <c r="K60" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.08</v>
+      </c>
       <c r="K61" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.62</v>
+      </c>
       <c r="K62" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
       <c r="K63" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
       <c r="K64" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="M64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="B65" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.04</v>
+      </c>
       <c r="K65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>136</v>
       </c>
@@ -3284,13 +3477,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B68" s="1">
         <f>COUNTIF(B1:B66,"&gt;=0.1")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" ref="C68:J68" si="2">COUNTIF(C1:C66,"&gt;=0.1")</f>
@@ -3298,31 +3491,31 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G68" s="1">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H68" s="1">
         <f>COUNTIF(H1:H66,"&gt;=0.1")+4</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I68" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J68" s="1">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -16,7 +16,6 @@
     <sheet name="LR_NM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,6 +580,122 @@
   </si>
   <si>
     <t>alpha = (np.dot(r0.T,r0+0.07382007600389018)/np.maximum(1e-12, np.dot(p.T, Ap)))</t>
+  </si>
+  <si>
+    <t>alpha = (np.dot(r0.T, r0)/np.maximum(1e-12, np.dot(p.T,1.3424042829341503*Ap)))</t>
+  </si>
+  <si>
+    <t>alpha = (np.dot(r0.T, r0)/np.maximum(1e-12, np.dot(p.T,Ap-0.26867576382653763)))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = x - p * alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x = x + p / alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x =1.0686657575987044*x + p * alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x =x-0.06134264954484758 + p * alpha</t>
+  </si>
+  <si>
+    <t>x = x +0.8237859279218015*p * alpha</t>
+  </si>
+  <si>
+    <t>x = x +p-0.08944143512793183 * alpha</t>
+  </si>
+  <si>
+    <t>BUG50</t>
+  </si>
+  <si>
+    <t>x = x + p *0.8459892000798297*alpha</t>
+  </si>
+  <si>
+    <t>x = x + p *alpha+0.07980283863323827</t>
+  </si>
+  <si>
+    <t>r = r0 + Ap * alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r =0.9718283556459395*r0 - Ap * alpha</t>
+  </si>
+  <si>
+    <t>r =r0+1.1383210111305517 - Ap * alpha</t>
+  </si>
+  <si>
+    <t>r = r0 -0.8641826721522685*Ap * alpha</t>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r = r0 - Ap *1.1883390665047944*alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r = r0 - Ap *alpha-0.7202844785947524</t>
+  </si>
+  <si>
+    <t>z = np.dot(0.9011171832984325*M, r)</t>
+  </si>
+  <si>
+    <t>z = np.dot(M-0.4334766445036269, r)</t>
+  </si>
+  <si>
+    <t>z = np.dot(M,1.0724758988155971*r)</t>
+  </si>
+  <si>
+    <t>z = np.dot(M,r-1.035435004138049)</t>
+  </si>
+  <si>
+    <t>beta = (np.dot(r.T, z)/np.dot(r0.T,0.641199787365405*z0))</t>
+  </si>
+  <si>
+    <t>beta = (np.dot(r.T,1.2736857613189454*z)/np.dot(r0.T, z0))</t>
+  </si>
+  <si>
+    <t>beta = (np.dot(r.T, z)/np.dot(r0.T,z0-0.8382966093257396))</t>
+  </si>
+  <si>
+    <t>p = z - beta * p</t>
+  </si>
+  <si>
+    <t>p = z + beta / p</t>
+  </si>
+  <si>
+    <t>p = 0.8982623348917906 * z + beta * p</t>
+  </si>
+  <si>
+    <t>p =z-0.49235833017824787 + beta * p</t>
+  </si>
+  <si>
+    <t>p = z +0.9860904506527102*beta * p</t>
+  </si>
+  <si>
+    <t>BUG41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p = z + beta + 0.595177658219508 * p</t>
+  </si>
+  <si>
+    <t>p = z + beta *p+0.2955578302051637</t>
+  </si>
+  <si>
+    <t>return .5 * (1 + np.tanh(0.6725395318396448 * x))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grad = + X.T * (y - self.p1(X * beta))</t>
+  </si>
+  <si>
+    <t>grad = - X.T * (y + self.p1(X * beta)) mutate104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -657,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +792,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -978,20 +1096,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
@@ -3910,944 +4028,1985 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="10" width="6.625" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="70.125" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="1" max="1" width="7" style="7" customWidth="1"/>
+    <col min="2" max="10" width="6.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="7" customWidth="1"/>
+    <col min="13" max="13" width="70.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>0.92</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>0.66</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
         <v>0.08</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="7">
         <f>COUNTIF(B3:J3,"&gt;=0.1")</f>
         <v>3</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" t="s">
+      <c r="M3" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K30" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" t="s">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K52" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>0.5</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>0.2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" t="s">
+      <c r="M5" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" t="s">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>0.08</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>0.02</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>0.02</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>0.04</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" t="s">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" t="s">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>0.04</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>0.02</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>0.16</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>0.08</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>0.12</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>0.34</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>0.02</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <v>0.12</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" t="s">
+      <c r="M9" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
         <f>-D100</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" t="s">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <f>-D101</f>
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" t="s">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>0.04</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>0.02</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>0.84</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0.84</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>0.08</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>0.44</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>0.26</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>0.22</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" t="s">
+      <c r="M12" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" t="s">
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.04</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>0.04</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <v>0.4</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" t="s">
+      <c r="M14" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1"/>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="7">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="7">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="K45" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="K47" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K48" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K52" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="1">
-        <f>COUNTIF(B1:B30,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" ref="C45:J45" si="1">COUNTIF(C1:C30,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="B59" s="7">
+        <f>COUNTIF(B1:B56,"&gt;=0.1")</f>
+        <v>4</v>
+      </c>
+      <c r="C59" s="7">
+        <f t="shared" ref="C59:J59" si="1">COUNTIF(C1:C56,"&gt;=0.1")</f>
+        <v>5</v>
+      </c>
+      <c r="D59" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E45" s="1">
+        <v>17</v>
+      </c>
+      <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F45" s="1">
+        <v>23</v>
+      </c>
+      <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
+        <v>7</v>
+      </c>
+      <c r="G59" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H45" s="1">
+        <v>20</v>
+      </c>
+      <c r="H59" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I45" s="1">
+        <v>26</v>
+      </c>
+      <c r="I59" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
+        <v>14</v>
+      </c>
+      <c r="J59" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="1">
-        <f xml:space="preserve"> B45/COUNT(B1:B30)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" ref="C46:J46" si="2" xml:space="preserve"> C45/COUNT(C1:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B60" s="7">
+        <f xml:space="preserve"> B59/COUNT(B1:B56)</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="C60" s="7">
+        <f t="shared" ref="C60:J60" si="2" xml:space="preserve"> C59/COUNT(C1:C56)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D60" s="7">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E46" s="1">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="E60" s="7">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="F46" s="1">
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="F60" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="H46" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H60" s="7">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I46" s="1">
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="I60" s="7">
         <f t="shared" si="2"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J46" s="1">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="J60" s="7">
         <f t="shared" si="2"/>
-        <v>0.25</v>
+        <v>0.35555555555555557</v>
       </c>
     </row>
   </sheetData>
@@ -4856,5 +6015,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kara\Documents\MRs-of-linear-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D4E610-2AE8-4F4C-A53E-67EB2ED7A2E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LR_GA" sheetId="1" r:id="rId1"/>
     <sheet name="LR_NM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,10 +632,6 @@
     <t>r = r0 -0.8641826721522685*Ap * alpha</t>
   </si>
   <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r = r0 - Ap *1.1883390665047944*alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,15 +691,38 @@
     <t xml:space="preserve"> grad = + X.T * (y - self.p1(X * beta))</t>
   </si>
   <si>
-    <t>grad = - X.T * (y + self.p1(X * beta)) mutate104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>grad = - X.T * (1.0741490494071908*y - self.p1(X * beta))</t>
+  </si>
+  <si>
+    <t>grad = - X.T * (y+0.46025557720099736 - self.p1(X * beta))</t>
+  </si>
+  <si>
+    <t>temp = np.multiply(self.p1(X * beta), (1 + self.p1(X * beta)))</t>
+  </si>
+  <si>
+    <t>temp = np.tile(1.2089493726944975*temp, (1, X.shape[1]))</t>
+  </si>
+  <si>
+    <t>hessian = X.T * np.multiply(1.0003957330713549*X, temp)</t>
+  </si>
+  <si>
+    <t>hessian = X.T * np.multiply(X+0.6667618933590584, temp)</t>
+  </si>
+  <si>
+    <t>grad, hessian = self.delta(1.1564686609604722*w, X, y)</t>
+  </si>
+  <si>
+    <t>grad, hessian = self.delta(w+0.33661193044618914, X, y)</t>
+  </si>
+  <si>
+    <t>grad, hessian = self.delta(w,0.7565290086858993*X, y)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +812,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1079,39 +1102,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="73.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1169,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>0.76</v>
       </c>
@@ -1260,7 +1283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1299,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1338,7 +1361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1377,7 +1400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1413,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1455,7 +1478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1608,7 +1631,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1686,7 +1709,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1725,7 +1748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1787,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1803,7 +1826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1920,7 +1943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1998,7 +2021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2037,7 +2060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2076,7 +2099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2115,7 +2138,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2154,7 +2177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2232,7 +2255,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2271,7 +2294,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2349,7 +2372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2388,7 +2411,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2450,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2466,7 +2489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2505,7 +2528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2544,7 +2567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2583,7 +2606,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2628,7 +2651,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2667,7 +2690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2709,7 +2732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,7 +2771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2790,7 +2813,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2829,7 +2852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2868,7 +2891,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2907,7 +2930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2946,7 +2969,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -2993,7 +3016,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3032,7 +3055,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3071,7 +3094,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3110,7 +3133,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3149,7 +3172,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3188,7 +3211,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -3227,7 +3250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -3266,7 +3289,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3305,7 +3328,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -3344,7 +3367,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>123</v>
       </c>
@@ -3383,7 +3406,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -3422,7 +3445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -3461,7 +3484,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -3500,7 +3523,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -3539,7 +3562,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
@@ -3578,7 +3601,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -3617,7 +3640,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
@@ -3656,7 +3679,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -3695,7 +3718,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>146</v>
       </c>
@@ -3734,7 +3757,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>147</v>
       </c>
@@ -3773,7 +3796,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -3812,7 +3835,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
@@ -3851,7 +3874,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -3890,7 +3913,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>151</v>
       </c>
@@ -3928,13 +3951,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -3975,7 +3998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" customHeight="1">
+    <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -4027,41 +4050,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="10" width="6.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="7" customWidth="1"/>
-    <col min="13" max="13" width="70.125" style="7" customWidth="1"/>
+    <col min="2" max="10" width="6.6640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="70.109375" style="7" customWidth="1"/>
     <col min="14" max="14" width="9" style="7" customWidth="1"/>
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4122,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
@@ -4138,7 +4161,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
@@ -4177,7 +4200,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4216,7 +4239,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -4255,7 +4278,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -4294,7 +4317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4333,7 +4356,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -4372,7 +4395,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -4412,7 +4435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -4452,7 +4475,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -4491,7 +4514,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -4530,7 +4553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -4569,7 +4592,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -4608,7 +4631,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -4647,7 +4670,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -4686,7 +4709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -4725,7 +4748,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -4764,7 +4787,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -4803,7 +4826,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4842,7 +4865,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4881,7 +4904,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -4920,7 +4943,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
@@ -4959,7 +4982,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
@@ -4998,7 +5021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -5037,7 +5060,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
@@ -5076,7 +5099,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
@@ -5115,7 +5138,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -5151,10 +5174,10 @@
         <v>5</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5190,10 +5213,10 @@
         <v>5</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -5229,10 +5252,10 @@
         <v>5</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -5268,10 +5291,10 @@
         <v>4</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -5307,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -5346,10 +5369,10 @@
         <v>7</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -5385,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -5424,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -5463,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -5502,10 +5525,10 @@
         <v>1</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -5541,10 +5564,10 @@
         <v>4</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -5580,10 +5603,10 @@
         <v>5</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -5619,10 +5642,10 @@
         <v>5</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -5658,12 +5681,12 @@
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="B43" s="7">
         <v>1</v>
@@ -5697,10 +5720,10 @@
         <v>8</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -5736,10 +5759,10 @@
         <v>5</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -5778,7 +5801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -5814,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -5853,160 +5876,424 @@
         <v>8</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>191</v>
+      <c r="B48" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.2</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>8</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="B49" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.08</v>
+      </c>
       <c r="K49" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <f>COUNTIF(B50:J50,"&gt;=0.1")</f>
+        <v>3</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K50" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="K50" s="8">
+        <f>COUNTIF(B51:J51,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
       <c r="K51" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="M51" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>184</v>
       </c>
+      <c r="B52" s="7">
+        <v>0</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
       <c r="K52" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="B53" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="B54" s="7">
+        <v>0</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="B55" s="7">
+        <v>0</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="B56" s="7">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B59" s="7">
         <f>COUNTIF(B1:B56,"&gt;=0.1")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" ref="C59:J59" si="1">COUNTIF(C1:C56,"&gt;=0.1")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E59" s="7">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F59" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G59" s="7">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I59" s="7">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B60" s="7">
         <f xml:space="preserve"> B59/COUNT(B1:B56)</f>
-        <v>8.8888888888888892E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" ref="C60:J60" si="2" xml:space="preserve"> C59/COUNT(C1:C56)</f>
-        <v>0.1111111111111111</v>
+        <v>0.12962962962962962</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="2"/>
-        <v>0.37777777777777777</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="E60" s="7">
         <f t="shared" si="2"/>
-        <v>0.51111111111111107</v>
+        <v>0.5</v>
       </c>
       <c r="F60" s="7">
         <f t="shared" si="2"/>
-        <v>0.15555555555555556</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G60" s="7">
         <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="2"/>
-        <v>0.57777777777777772</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="I60" s="7">
         <f t="shared" si="2"/>
-        <v>0.31111111111111112</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="2"/>
-        <v>0.35555555555555557</v>
+        <v>0.35185185185185186</v>
       </c>
     </row>
   </sheetData>

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kara\Documents\MRs-of-linear-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D4E610-2AE8-4F4C-A53E-67EB2ED7A2E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LR_GA" sheetId="1" r:id="rId1"/>
     <sheet name="LR_NM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="237">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,13 +715,67 @@
   </si>
   <si>
     <t>grad, hessian = self.delta(w,0.7565290086858993*X, y)</t>
+  </si>
+  <si>
+    <t>grad, hessian = self.delta(w,X+0.2389455687946465, y)</t>
+  </si>
+  <si>
+    <t>grad, hessian = self.delta(w, X,1.0439954150966477*y)</t>
+  </si>
+  <si>
+    <t>grad, hessian = self.delta(w, X,y-0.7005499835434487)</t>
+  </si>
+  <si>
+    <t>d = cg(1.2895254156798792*hessian, grad)</t>
+  </si>
+  <si>
+    <t>d = cg(hessian+0.39363812175688184, grad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d = cg(hessian,0.9621198132043888*grad)</t>
+  </si>
+  <si>
+    <t>d = cg(hessian,grad-0.8782148450140002)</t>
+  </si>
+  <si>
+    <t>w = w + d</t>
+  </si>
+  <si>
+    <t>w =0.8589845772897977*w - d</t>
+  </si>
+  <si>
+    <t>w =w+1.4263738248537714 - d</t>
+  </si>
+  <si>
+    <t>BUG69</t>
+  </si>
+  <si>
+    <t>BUG70</t>
+  </si>
+  <si>
+    <t>w = w -1.0925132295393003*d</t>
+  </si>
+  <si>
+    <t>w = w -d+0.8763935558136369</t>
+  </si>
+  <si>
+    <t>clf = Clf(1.0193956024458963*w, b)</t>
+  </si>
+  <si>
+    <t>clf = Clf(w+0.5730591595879739, b)</t>
+  </si>
+  <si>
+    <t>clf = Clf(w,b-0.2532288108867225)</t>
+  </si>
+  <si>
+    <t>clf = Clf(w,0.9340909607476069*b)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +865,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1102,39 +1158,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="12.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="73.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1303,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5" s="2">
         <v>0.76</v>
       </c>
@@ -1283,7 +1339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,7 +1378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="B9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1436,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1595,7 +1651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1631,7 +1687,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1670,7 +1726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1709,7 +1765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1787,7 +1843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1865,7 +1921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1904,7 +1960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1943,7 +1999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1982,7 +2038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2021,7 +2077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2060,7 +2116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2099,7 +2155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2138,7 +2194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2233,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2216,7 +2272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2255,7 +2311,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2294,7 +2350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2333,7 +2389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2372,7 +2428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2411,7 +2467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2450,7 +2506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2489,7 +2545,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2528,7 +2584,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2606,7 +2662,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2651,7 +2707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2690,7 +2746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2732,7 +2788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -2771,7 +2827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2813,7 +2869,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2852,7 +2908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2891,7 +2947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2930,7 +2986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2969,7 +3025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3016,7 +3072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3055,7 +3111,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3094,7 +3150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3133,7 +3189,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3172,7 +3228,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3211,7 +3267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -3250,7 +3306,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -3289,7 +3345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3328,7 +3384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -3367,7 +3423,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="4" t="s">
         <v>123</v>
       </c>
@@ -3406,7 +3462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -3445,7 +3501,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -3484,7 +3540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -3523,7 +3579,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -3562,7 +3618,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
@@ -3601,7 +3657,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -3640,7 +3696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
@@ -3679,7 +3735,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -3718,7 +3774,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="4" t="s">
         <v>146</v>
       </c>
@@ -3757,7 +3813,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="4" t="s">
         <v>147</v>
       </c>
@@ -3796,7 +3852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -3835,7 +3891,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
@@ -3874,7 +3930,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -3913,7 +3969,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="4" t="s">
         <v>151</v>
       </c>
@@ -3951,13 +4007,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="4"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -3998,7 +4054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="18" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -4050,41 +4106,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="10" width="6.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="70.109375" style="7" customWidth="1"/>
+    <col min="2" max="10" width="6.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.75" style="7" customWidth="1"/>
+    <col min="13" max="13" width="70.125" style="7" customWidth="1"/>
     <col min="14" max="14" width="9" style="7" customWidth="1"/>
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4178,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
@@ -4161,7 +4217,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
@@ -4193,14 +4249,14 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f t="shared" ref="K4:K52" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <f t="shared" ref="K4:K67" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4239,7 +4295,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -4278,7 +4334,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -4317,7 +4373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4356,7 +4412,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -4395,7 +4451,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -4435,7 +4491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -4475,7 +4531,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -4514,7 +4570,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -4553,7 +4609,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -4592,7 +4648,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -4631,7 +4687,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -4670,7 +4726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -4709,7 +4765,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -4748,7 +4804,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -4787,7 +4843,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -4826,7 +4882,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4865,7 +4921,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4904,7 +4960,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -4943,7 +4999,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
@@ -4982,7 +5038,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
@@ -5021,7 +5077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -5060,7 +5116,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
@@ -5099,7 +5155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
@@ -5138,7 +5194,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -5177,7 +5233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5216,7 +5272,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -5255,7 +5311,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -5294,7 +5350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -5333,7 +5389,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -5372,7 +5428,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -5411,7 +5467,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -5450,7 +5506,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -5489,7 +5545,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -5528,7 +5584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -5567,7 +5623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -5606,7 +5662,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -5645,7 +5701,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -5684,7 +5740,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
         <v>205</v>
       </c>
@@ -5723,7 +5779,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -5762,7 +5818,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -5801,7 +5857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -5840,7 +5896,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -5879,7 +5935,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -5918,7 +5974,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
@@ -5957,7 +6013,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
@@ -5996,7 +6052,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
@@ -6035,7 +6091,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
         <v>184</v>
       </c>
@@ -6074,7 +6130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
@@ -6105,11 +6161,15 @@
       <c r="J53" s="7">
         <v>0.2</v>
       </c>
+      <c r="K53" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M53" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
@@ -6140,11 +6200,15 @@
       <c r="J54" s="7">
         <v>0</v>
       </c>
+      <c r="K54" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M54" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="7" t="s">
         <v>122</v>
       </c>
@@ -6175,11 +6239,15 @@
       <c r="J55" s="7">
         <v>0.04</v>
       </c>
+      <c r="K55" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="M55" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
@@ -6210,90 +6278,721 @@
       <c r="J56" s="7">
         <v>0</v>
       </c>
+      <c r="K56" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M56" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="57" spans="1:13">
+      <c r="A57" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="I59" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="K59" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I63" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="K63" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="K64" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7">
+        <v>0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="K68" s="9">
+        <f t="shared" ref="K68:K72" si="1">COUNTIF(B68:J68,"&gt;=0.1")</f>
+        <v>7</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="E70" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0</v>
+      </c>
+      <c r="C71" s="7">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I71" s="7">
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="7">
-        <f>COUNTIF(B1:B56,"&gt;=0.1")</f>
-        <v>6</v>
-      </c>
-      <c r="C59" s="7">
-        <f t="shared" ref="C59:J59" si="1">COUNTIF(C1:C56,"&gt;=0.1")</f>
-        <v>7</v>
-      </c>
-      <c r="D59" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="E59" s="7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G59" s="7">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H59" s="7">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="I59" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J59" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="B74" s="7">
+        <f>COUNTIF(B1:B72,"&gt;=0.1")</f>
+        <v>10</v>
+      </c>
+      <c r="C74" s="9">
+        <f t="shared" ref="C74:J74" si="2">COUNTIF(C1:C72,"&gt;=0.1")</f>
+        <v>11</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E74" s="9">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G74" s="9">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H74" s="9">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="I74" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="7">
-        <f xml:space="preserve"> B59/COUNT(B1:B56)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C60" s="7">
-        <f t="shared" ref="C60:J60" si="2" xml:space="preserve"> C59/COUNT(C1:C56)</f>
-        <v>0.12962962962962962</v>
-      </c>
-      <c r="D60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.40740740740740738</v>
-      </c>
-      <c r="E60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.42592592592592593</v>
-      </c>
-      <c r="H60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.57407407407407407</v>
-      </c>
-      <c r="I60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="J60" s="7">
-        <f t="shared" si="2"/>
-        <v>0.35185185185185186</v>
+      <c r="B75" s="7">
+        <f xml:space="preserve"> B74/COUNT(B1:B72)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C75" s="9">
+        <f t="shared" ref="C75:J75" si="3" xml:space="preserve"> C74/COUNT(C1:C66)</f>
+        <v>0.171875</v>
+      </c>
+      <c r="D75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.46875</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.515625</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
+      </c>
+      <c r="G75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
+      </c>
+      <c r="H75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.609375</v>
+      </c>
+      <c r="I75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="3"/>
+        <v>0.40625</v>
       </c>
     </row>
   </sheetData>

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="239">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,14 @@
   </si>
   <si>
     <t>clf = Clf(w,0.9340909607476069*b)</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,6 +873,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1159,38 +1170,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
-    <col min="11" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="73.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="73.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,10 +1236,13 @@
         <v>115</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>237</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1260,11 +1277,11 @@
         <f>COUNTIF(B3:J3,"&gt;=0.1")</f>
         <v>4</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1299,11 +1316,11 @@
         <f t="shared" ref="K4:K72" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
         <v>4</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="B5" s="2">
         <v>0.76</v>
       </c>
@@ -1335,11 +1352,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1374,11 +1391,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,11 +1430,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,11 +1469,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="B9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1488,11 +1505,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1527,14 +1544,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="10"/>
+      <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1569,11 +1587,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="10"/>
+      <c r="N11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,11 +1627,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="10"/>
+      <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1647,11 +1667,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1683,11 +1703,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1722,11 +1742,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1761,11 +1781,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1800,11 +1820,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1839,11 +1859,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,11 +1898,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1917,11 +1937,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1956,11 +1976,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1995,11 +2015,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2034,11 +2054,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2073,11 +2093,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2112,11 +2132,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2151,11 +2171,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2190,11 +2210,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2229,11 +2249,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2268,11 +2288,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2307,11 +2327,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2346,11 +2366,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2385,11 +2405,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2424,11 +2444,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2463,11 +2483,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2502,11 +2522,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2541,11 +2561,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2580,11 +2600,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2619,11 +2639,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2658,11 +2678,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2697,17 +2717,17 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2742,11 +2762,11 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2781,14 +2801,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -2823,11 +2843,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2862,14 +2882,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="O44" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2904,11 +2924,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2943,11 +2963,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2982,11 +3002,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3021,11 +3041,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3068,11 +3088,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3107,11 +3127,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3146,11 +3166,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3185,11 +3205,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3224,11 +3244,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3263,11 +3283,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:14">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -3302,11 +3322,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -3341,11 +3361,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3380,11 +3400,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -3419,11 +3439,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
         <v>123</v>
       </c>
@@ -3458,11 +3478,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -3497,11 +3517,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -3536,11 +3556,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -3575,11 +3595,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -3614,11 +3634,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
@@ -3653,11 +3673,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -3692,11 +3712,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
@@ -3731,11 +3751,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:14">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -3770,11 +3790,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
         <v>146</v>
       </c>
@@ -3809,11 +3829,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="N68" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
         <v>147</v>
       </c>
@@ -3848,11 +3868,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -3887,11 +3907,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
@@ -3926,11 +3946,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -3965,11 +3985,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4003,58 +4023,58 @@
       <c r="K73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" s="4"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" ref="B77:G77" si="2">COUNTIF(B2:B67,"&gt;=0.1")</f>
+        <f>COUNTIF(B2:B73,"&gt;=0.1")</f>
         <v>7</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="10">
+        <f t="shared" ref="C77:J77" si="2">COUNTIF(C2:C73,"&gt;=0.1")</f>
+        <v>5</v>
+      </c>
+      <c r="D77" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="D77" s="1">
+        <v>21</v>
+      </c>
+      <c r="E77" s="10">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="F77" s="1">
+        <v>44</v>
+      </c>
+      <c r="F77" s="10">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="10">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="H77" s="1">
-        <f>COUNTIF(H2:H67,"&gt;=0.1")+4</f>
-        <v>42</v>
-      </c>
-      <c r="I77" s="1">
-        <f>COUNTIF(I2:I67,"&gt;=0.1")</f>
+        <v>29</v>
+      </c>
+      <c r="H77" s="10">
+        <f>COUNTIF(H2:H73,"&gt;=0.1")+4</f>
+        <v>44</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J77" s="1">
-        <f>COUNTIF(J2:J67,"&gt;=0.1")</f>
+      <c r="J77" s="10">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18" customHeight="1">
+    <row r="78" spans="1:14" ht="18" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -4068,11 +4088,11 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="3"/>
-        <v>0.26760563380281688</v>
+        <v>0.29577464788732394</v>
       </c>
       <c r="E78" s="1">
         <f t="shared" si="3"/>
-        <v>0.57746478873239437</v>
+        <v>0.61971830985915488</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
@@ -4080,11 +4100,11 @@
       </c>
       <c r="G78" s="1">
         <f t="shared" si="3"/>
-        <v>0.38028169014084506</v>
+        <v>0.40845070422535212</v>
       </c>
       <c r="H78" s="1">
         <f xml:space="preserve"> H77/(COUNT(H3:H76)+4)</f>
-        <v>0.59154929577464788</v>
+        <v>0.61971830985915488</v>
       </c>
       <c r="I78" s="1">
         <f t="shared" si="3"/>
@@ -4097,7 +4117,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4109,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4125,20 +4145,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="7" t="s">
@@ -6921,35 +6941,35 @@
         <f>COUNTIF(B1:B72,"&gt;=0.1")</f>
         <v>10</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <f t="shared" ref="C74:J74" si="2">COUNTIF(C1:C72,"&gt;=0.1")</f>
         <v>11</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="10">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="10">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="10">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="10">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="LR_GA" sheetId="1" r:id="rId1"/>
     <sheet name="LR_NM" sheetId="2" r:id="rId2"/>
+    <sheet name="SVM_CVX_L2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="264">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,7 +776,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
+    <t>datasets = CreateDataset(400,100,10,0,2,-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG2</t>
+  </si>
+  <si>
+    <t>g = matrix(np.eye(data_num))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h = matrix(np.zeros([data_num, 1], np.float64)) + 1 </t>
+  </si>
+  <si>
+    <t>data_num = int(0.9*len(y))</t>
+  </si>
+  <si>
+    <t>b = matrix(10.0)</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(1.264497305328897*X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 / C)</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) / (.5 / C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p = matrix(kernel / np.outer(y, y))</t>
+  </si>
+  <si>
+    <t>p = matrix(kernel * np.outer(1.2021579542249134*y, y))</t>
+  </si>
+  <si>
+    <t>p = matrix(kernel * np.outer(y,0.5538015548853306*y))</t>
+  </si>
+  <si>
+    <t>q = matrix(+np.ones([data_num, 1], np.float64))</t>
+  </si>
+  <si>
+    <t>q = matrix(np.ones([data_num, 1], np.float64))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sol = solvers.qp(p,1.2118340236777827*q, g, h)</t>
+  </si>
+  <si>
+    <t>sol = solvers.qp(p,q+0.7660754521910417, g, h)</t>
+  </si>
+  <si>
+    <t>sol = solvers.qp(p, q,1.142670981012205*g, h)</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(100.264497305328897*X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 / C)</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5/C+0.5499684200369075)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /C+100.5499684200369075)</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /-109.57093079972641*C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statistical</t>
+  </si>
+  <si>
+    <t>err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /-19.57093079972641*C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /109.57093079972641*C)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +915,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -853,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,6 +981,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1188,21 +1299,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
@@ -1238,8 +1349,8 @@
       <c r="L2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>238</v>
+      <c r="M2" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1277,6 +1388,9 @@
         <f>COUNTIF(B3:J3,"&gt;=0.1")</f>
         <v>4</v>
       </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,6 +1430,9 @@
         <f t="shared" ref="K4:K72" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
         <v>4</v>
       </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1352,6 +1469,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1391,6 +1511,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1430,6 +1553,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1469,6 +1595,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1505,6 +1634,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1544,7 +1676,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1721,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1763,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1667,6 +1805,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1702,6 +1843,9 @@
       <c r="K14" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>117</v>
@@ -1742,6 +1886,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1781,6 +1928,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>69</v>
       </c>
@@ -1820,6 +1970,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>70</v>
       </c>
@@ -1859,6 +2012,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1898,6 +2054,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1937,6 +2096,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1976,6 +2138,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1996,7 +2161,7 @@
       <c r="E22" s="2">
         <v>0.95</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.4</v>
       </c>
       <c r="G22" s="2">
@@ -2014,6 +2179,9 @@
       <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>75</v>
@@ -2054,6 +2222,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2093,6 +2264,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>77</v>
       </c>
@@ -2132,6 +2306,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>78</v>
       </c>
@@ -2171,6 +2348,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>79</v>
       </c>
@@ -2210,6 +2390,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2249,6 +2432,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>81</v>
       </c>
@@ -2288,6 +2474,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2327,6 +2516,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>83</v>
       </c>
@@ -2366,6 +2558,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
       <c r="N31" s="1" t="s">
         <v>84</v>
       </c>
@@ -2405,6 +2600,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
       <c r="N32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2444,6 +2642,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>86</v>
       </c>
@@ -2483,6 +2684,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>87</v>
       </c>
@@ -2522,6 +2726,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>88</v>
       </c>
@@ -2561,6 +2768,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>89</v>
       </c>
@@ -2600,6 +2810,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>90</v>
       </c>
@@ -2639,6 +2852,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>91</v>
       </c>
@@ -2678,6 +2894,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>92</v>
       </c>
@@ -2717,6 +2936,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>93</v>
       </c>
@@ -2762,6 +2984,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>96</v>
       </c>
@@ -2801,6 +3026,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
       <c r="N42" s="1" t="s">
         <v>97</v>
       </c>
@@ -2843,6 +3071,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
       <c r="N43" s="1" t="s">
         <v>100</v>
       </c>
@@ -2882,6 +3113,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
       <c r="N44" s="1" t="s">
         <v>101</v>
       </c>
@@ -2924,6 +3158,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
       <c r="N45" s="1" t="s">
         <v>102</v>
       </c>
@@ -2963,6 +3200,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
       <c r="N46" s="1" t="s">
         <v>103</v>
       </c>
@@ -3002,6 +3242,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
@@ -3041,6 +3284,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
       <c r="N48" s="1" t="s">
         <v>105</v>
       </c>
@@ -3088,6 +3334,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
       <c r="N49" s="1" t="s">
         <v>106</v>
       </c>
@@ -3127,6 +3376,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
       <c r="N50" s="1" t="s">
         <v>107</v>
       </c>
@@ -3166,6 +3418,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
       <c r="N51" s="1" t="s">
         <v>108</v>
       </c>
@@ -3205,6 +3460,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
       <c r="N52" s="1" t="s">
         <v>109</v>
       </c>
@@ -3244,6 +3502,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
       <c r="N53" s="1" t="s">
         <v>110</v>
       </c>
@@ -3283,6 +3544,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
       <c r="N54" s="1" t="s">
         <v>111</v>
       </c>
@@ -3322,6 +3586,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
       <c r="N55" s="1" t="s">
         <v>134</v>
       </c>
@@ -3361,6 +3628,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
       <c r="N56" s="1" t="s">
         <v>133</v>
       </c>
@@ -3400,6 +3670,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
       <c r="N57" s="1" t="s">
         <v>135</v>
       </c>
@@ -3417,16 +3690,16 @@
       <c r="D58" s="2">
         <v>0.93</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>0.99</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="2">
         <v>0.91</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="1">
@@ -3438,6 +3711,9 @@
       <c r="K58" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>136</v>
@@ -3478,6 +3754,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="M59" s="1">
+        <v>0</v>
+      </c>
       <c r="N59" s="1" t="s">
         <v>137</v>
       </c>
@@ -3489,7 +3768,7 @@
       <c r="B60" s="2">
         <v>0.44</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>0.43</v>
       </c>
       <c r="D60" s="2">
@@ -3516,6 +3795,9 @@
       <c r="K60" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>139</v>
@@ -3556,6 +3838,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="M61" s="1">
+        <v>0</v>
+      </c>
       <c r="N61" s="1" t="s">
         <v>138</v>
       </c>
@@ -3595,6 +3880,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
       <c r="N62" s="1" t="s">
         <v>140</v>
       </c>
@@ -3634,6 +3922,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
       <c r="N63" s="1" t="s">
         <v>141</v>
       </c>
@@ -3673,6 +3964,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
       <c r="N64" s="1" t="s">
         <v>142</v>
       </c>
@@ -3712,6 +4006,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
       <c r="N65" s="1" t="s">
         <v>143</v>
       </c>
@@ -3751,6 +4048,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
       <c r="N66" s="1" t="s">
         <v>144</v>
       </c>
@@ -3790,6 +4090,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
       <c r="N67" s="1" t="s">
         <v>145</v>
       </c>
@@ -3829,6 +4132,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
       <c r="N68" s="6" t="s">
         <v>152</v>
       </c>
@@ -3868,6 +4174,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
       <c r="N69" s="1" t="s">
         <v>153</v>
       </c>
@@ -3907,6 +4216,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
       <c r="N70" s="1" t="s">
         <v>154</v>
       </c>
@@ -4041,35 +4353,35 @@
         <f>COUNTIF(B2:B73,"&gt;=0.1")</f>
         <v>7</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="15">
         <f t="shared" ref="C77:J77" si="2">COUNTIF(C2:C73,"&gt;=0.1")</f>
         <v>5</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="15">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="15">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="15">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="15">
         <f>COUNTIF(H2:H73,"&gt;=0.1")+4</f>
         <v>44</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="15">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -4082,23 +4394,23 @@
         <f xml:space="preserve"> B77/COUNT(B3:B76)</f>
         <v>9.8591549295774641E-2</v>
       </c>
-      <c r="C78" s="1">
-        <f t="shared" ref="C78:J78" si="3" xml:space="preserve"> C77/COUNT(C3:C76)</f>
+      <c r="C78" s="15">
+        <f t="shared" ref="C78:G78" si="3" xml:space="preserve"> C77/COUNT(C3:C76)</f>
         <v>7.0422535211267609E-2</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="15">
         <f t="shared" si="3"/>
         <v>0.29577464788732394</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="15">
         <f t="shared" si="3"/>
         <v>0.61971830985915488</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="15">
         <f t="shared" si="3"/>
         <v>5.6338028169014086E-2</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="15">
         <f t="shared" si="3"/>
         <v>0.40845070422535212</v>
       </c>
@@ -4107,11 +4419,11 @@
         <v>0.61971830985915488</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C78:J78" si="4" xml:space="preserve"> I77/COUNT(I3:I76)</f>
         <v>0.19718309859154928</v>
       </c>
-      <c r="J78" s="1">
-        <f t="shared" si="3"/>
+      <c r="J78" s="15">
+        <f t="shared" si="4"/>
         <v>0.18309859154929578</v>
       </c>
     </row>
@@ -4129,14 +4441,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
-    <col min="2" max="10" width="6.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="7" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="7" customWidth="1"/>
     <col min="12" max="12" width="10.75" style="7" customWidth="1"/>
     <col min="13" max="13" width="70.125" style="7" customWidth="1"/>
@@ -4145,20 +4465,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="7" t="s">
@@ -4208,10 +4528,10 @@
       <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>0.92</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>0.66</v>
       </c>
       <c r="F3" s="7">
@@ -4220,7 +4540,7 @@
       <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="7">
@@ -4268,7 +4588,7 @@
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="15">
         <f t="shared" ref="K4:K67" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
         <v>0</v>
       </c>
@@ -4286,7 +4606,7 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>0.5</v>
       </c>
       <c r="E5" s="7">
@@ -4304,10 +4624,10 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="2">
         <v>0.2</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4346,7 +4666,7 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4385,7 +4705,7 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4424,7 +4744,7 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4442,28 +4762,28 @@
       <c r="C9" s="7">
         <v>0.02</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>0.16</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="F9" s="7">
         <v>0.08</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <v>0.12</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="2">
         <v>0.34</v>
       </c>
       <c r="I9" s="7">
         <v>0.02</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="2">
         <v>0.12</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4503,7 +4823,7 @@
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4543,7 +4863,7 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4561,28 +4881,28 @@
       <c r="C12" s="7">
         <v>0.02</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="2">
         <v>0.84</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>0.84</v>
       </c>
       <c r="F12" s="7">
         <v>0.08</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <v>0.44</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="2">
         <v>0.26</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="2">
         <v>0.22</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4621,7 +4941,7 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4651,7 +4971,7 @@
       <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="2">
         <v>0.4</v>
       </c>
       <c r="I14" s="7">
@@ -4660,7 +4980,7 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4699,7 +5019,7 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4717,19 +5037,19 @@
       <c r="C16" s="7">
         <v>0.02</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="2">
         <v>0.8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="2">
         <v>0.32</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <v>0.82</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="2">
         <v>0.6</v>
       </c>
       <c r="I16" s="7">
@@ -4738,7 +5058,7 @@
       <c r="J16" s="7">
         <v>0.02</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4753,31 +5073,31 @@
       <c r="B17" s="7">
         <v>0.06</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="2">
         <v>0.4</v>
       </c>
       <c r="F17" s="7">
         <v>0.04</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="2">
         <v>0.94</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="2">
         <v>0.84</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="2">
         <v>0.48</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4798,7 +5118,7 @@
       <c r="D18" s="7">
         <v>0.08</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="2">
         <v>0.34</v>
       </c>
       <c r="F18" s="7">
@@ -4807,7 +5127,7 @@
       <c r="G18" s="7">
         <v>0.08</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="2">
         <v>0.92</v>
       </c>
       <c r="I18" s="7">
@@ -4816,7 +5136,7 @@
       <c r="J18" s="7">
         <v>0.06</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4855,7 +5175,7 @@
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4873,19 +5193,19 @@
       <c r="C20" s="7">
         <v>0.02</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="2">
         <v>0.98</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="2">
         <v>0.92</v>
       </c>
       <c r="F20" s="7">
         <v>0.02</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="2">
         <v>0.3</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="2">
         <v>1</v>
       </c>
       <c r="I20" s="7">
@@ -4894,7 +5214,7 @@
       <c r="J20" s="7">
         <v>0.06</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4933,7 +5253,7 @@
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4948,13 +5268,13 @@
       <c r="B22" s="7">
         <v>0.08</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="2">
         <v>0.1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="2">
         <v>0.98</v>
       </c>
       <c r="F22" s="7">
@@ -4963,16 +5283,16 @@
       <c r="G22" s="7">
         <v>0.02</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="2">
         <v>0.96</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="2">
         <v>0.48</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5011,7 +5331,7 @@
       <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5023,34 +5343,34 @@
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="2">
         <v>0.1</v>
       </c>
       <c r="C24" s="7">
         <v>0.08</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="2">
         <v>0.96</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="2">
         <v>0.92</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="2">
         <v>0.18</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="2">
         <v>0.82</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="2">
         <v>0.98</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5071,25 +5391,25 @@
       <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="2">
         <v>0.78</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="2">
         <v>0.1</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="2">
         <v>0.26</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="2">
         <v>0.24</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="2">
         <v>0.16</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5110,25 +5430,25 @@
       <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
         <v>0.72</v>
       </c>
       <c r="F26" s="7">
         <v>0.02</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="2">
         <v>0.22</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>0.72</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="2">
         <v>0.16</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="2">
         <v>0.18</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5146,19 +5466,19 @@
       <c r="C27" s="7">
         <v>0.02</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <v>0.96</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="2">
         <v>0.72</v>
       </c>
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="2">
         <v>0.54</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="2">
         <v>1</v>
       </c>
       <c r="I27" s="7">
@@ -5167,7 +5487,7 @@
       <c r="J27" s="7">
         <v>0.02</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5206,7 +5526,7 @@
       <c r="J28" s="7">
         <v>0</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5227,25 +5547,25 @@
       <c r="D29" s="7">
         <v>0</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="2">
         <v>0.66</v>
       </c>
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="2">
         <v>0.46</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="2">
         <v>0.36</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="2">
         <v>0.34</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5266,25 +5586,25 @@
       <c r="D30" s="7">
         <v>0</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="2">
         <v>0.66</v>
       </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="2">
         <v>0.46</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="2">
         <v>0.36</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="2">
         <v>0.34</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5305,25 +5625,25 @@
       <c r="D31" s="7">
         <v>0</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="2">
         <v>0.66</v>
       </c>
       <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="2">
         <v>0.42</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="2">
         <v>0.4</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5341,19 +5661,19 @@
       <c r="C32" s="7">
         <v>0.04</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="2">
         <v>0.12</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="2">
         <v>0.46</v>
       </c>
       <c r="F32" s="7">
         <v>0.08</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="2">
         <v>0.3</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="2">
         <v>0.86</v>
       </c>
       <c r="I32" s="7">
@@ -5362,7 +5682,7 @@
       <c r="J32" s="7">
         <v>0</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5401,7 +5721,7 @@
       <c r="J33" s="7">
         <v>0</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5419,28 +5739,28 @@
       <c r="C34" s="7">
         <v>0.08</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="2">
         <v>0.94</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="2">
         <v>0.9</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="2">
         <v>0.12</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="2">
         <v>0.68</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="2">
         <v>0.96</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="2">
         <v>0.26</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="2">
         <v>0.12</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5479,7 +5799,7 @@
       <c r="J35" s="7">
         <v>0</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5518,7 +5838,7 @@
       <c r="J36" s="7">
         <v>0</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5557,7 +5877,7 @@
       <c r="J37" s="7">
         <v>0</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5587,7 +5907,7 @@
       <c r="G38" s="7">
         <v>0</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="2">
         <v>0.24</v>
       </c>
       <c r="I38" s="7">
@@ -5596,7 +5916,7 @@
       <c r="J38" s="7">
         <v>0</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5620,22 +5940,22 @@
       <c r="E39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="2">
         <v>0.1</v>
       </c>
       <c r="G39" s="7">
         <v>0.06</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="2">
         <v>0.92</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="2">
         <v>0.1</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5656,25 +5976,25 @@
       <c r="D40" s="7">
         <v>0</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="2">
         <v>0.84</v>
       </c>
       <c r="F40" s="7">
         <v>0.02</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="2">
         <v>0.52</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="2">
         <v>0.34</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="2">
         <v>0.3</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5692,19 +6012,19 @@
       <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="2">
         <v>0.98</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="2">
         <v>0.96</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="2">
         <v>0.26</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="2">
         <v>0.88</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="2">
         <v>1</v>
       </c>
       <c r="I41" s="7">
@@ -5713,7 +6033,7 @@
       <c r="J41" s="7">
         <v>0.04</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5752,7 +6072,7 @@
       <c r="J42" s="7">
         <v>0</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5764,34 +6084,34 @@
       <c r="A43" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="2">
         <v>0.96</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="2">
         <v>0.78</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="2">
         <v>0.76</v>
       </c>
       <c r="F43" s="7">
         <v>0.08</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="2">
         <v>0.18</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="2">
         <v>0.22</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5809,19 +6129,19 @@
       <c r="C44" s="7">
         <v>0</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="2">
         <v>0.94</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="2">
         <v>0.96</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="2">
         <v>0.38</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="2">
         <v>0.96</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="2">
         <v>1</v>
       </c>
       <c r="I44" s="7">
@@ -5830,7 +6150,7 @@
       <c r="J44" s="7">
         <v>0.04</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5842,25 +6162,25 @@
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="2">
         <v>0.4</v>
       </c>
       <c r="F45" s="7">
         <v>0.08</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="2">
         <v>0.12</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="2">
         <v>0.84</v>
       </c>
       <c r="I45" s="7">
@@ -5869,7 +6189,7 @@
       <c r="J45" s="7">
         <v>0.08</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5908,7 +6228,7 @@
       <c r="J46" s="7">
         <v>0</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5920,34 +6240,34 @@
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="2">
         <v>0.12</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="2">
         <v>0.4</v>
       </c>
       <c r="F47" s="7">
         <v>0.06</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="2">
         <v>0.94</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="2">
         <v>0.84</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="2">
         <v>0.48</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5959,34 +6279,34 @@
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="2">
         <v>0.16</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="2">
         <v>0.3</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="2">
         <v>0.92</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="2">
         <v>0.42</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="2">
         <v>0.16</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="2">
         <v>0.36</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="2">
         <v>0.86</v>
       </c>
       <c r="I48" s="7">
         <v>0.08</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="2">
         <v>0.2</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5998,36 +6318,36 @@
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="2">
         <v>0.12</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="2">
         <v>0.1</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="2">
         <v>0.94</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="2">
         <v>0.9</v>
       </c>
       <c r="F49" s="7">
         <v>0.08</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="2">
         <v>0.48</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="2">
         <v>0.94</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="J49" s="7">
         <v>0.08</v>
       </c>
-      <c r="K49" s="7">
-        <f>COUNTIF(B50:J50,"&gt;=0.1")</f>
-        <v>3</v>
+      <c r="K49" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="M49" s="8" t="s">
         <v>211</v>
@@ -6043,7 +6363,7 @@
       <c r="C50" s="7">
         <v>0</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="2">
         <v>0.64</v>
       </c>
       <c r="E50" s="7">
@@ -6055,18 +6375,18 @@
       <c r="G50" s="7">
         <v>0</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="2">
         <v>0.8</v>
       </c>
       <c r="I50" s="7">
         <v>0</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="2">
         <v>0.18</v>
       </c>
-      <c r="K50" s="8">
-        <f>COUNTIF(B51:J51,"&gt;=0.1")</f>
-        <v>0</v>
+      <c r="K50" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M50" s="8" t="s">
         <v>212</v>
@@ -6103,7 +6423,7 @@
       <c r="J51" s="7">
         <v>0</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6142,7 +6462,7 @@
       <c r="J52" s="7">
         <v>0</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6160,28 +6480,28 @@
       <c r="C53" s="7">
         <v>0.02</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="2">
         <v>0.2</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="2">
         <v>0.6</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="2">
         <v>0.1</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="2">
         <v>0.2</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="2">
         <v>0.22</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="2">
         <v>0.2</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6220,7 +6540,7 @@
       <c r="J54" s="7">
         <v>0</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6238,10 +6558,10 @@
       <c r="C55" s="7">
         <v>0</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="2">
         <v>0.88</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="2">
         <v>0.64</v>
       </c>
       <c r="F55" s="7">
@@ -6250,7 +6570,7 @@
       <c r="G55" s="7">
         <v>0</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="7">
@@ -6259,7 +6579,7 @@
       <c r="J55" s="7">
         <v>0.04</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6298,7 +6618,7 @@
       <c r="J56" s="7">
         <v>0</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K56" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6328,7 +6648,7 @@
       <c r="G57" s="7">
         <v>0</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="2">
         <v>1</v>
       </c>
       <c r="I57" s="7">
@@ -6337,7 +6657,7 @@
       <c r="J57" s="7">
         <v>0</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K57" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6349,34 +6669,34 @@
       <c r="A58" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="2">
         <v>0.1</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="2">
         <v>0.12</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="2">
         <v>0.74</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="2">
         <v>0.18</v>
       </c>
       <c r="F58" s="7">
         <v>0.02</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="2">
         <v>0.22</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="2">
         <v>0.88</v>
       </c>
       <c r="I58" s="7">
         <v>0.06</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="2">
         <v>0.16</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6388,34 +6708,34 @@
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="2">
         <v>0.6</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="2">
         <v>0.48</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="2">
         <v>0.92</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="2">
         <v>0.86</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="2">
         <v>0.76</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="2">
         <v>0.72</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="2">
         <v>0.44</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="2">
         <v>0.4</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K59" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -6454,7 +6774,7 @@
       <c r="J60" s="7">
         <v>0</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6493,7 +6813,7 @@
       <c r="J61" s="7">
         <v>0</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6532,7 +6852,7 @@
       <c r="J62" s="7">
         <v>0</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6550,7 +6870,7 @@
       <c r="C63" s="7">
         <v>0.02</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="2">
         <v>0.48</v>
       </c>
       <c r="E63" s="7">
@@ -6568,10 +6888,10 @@
       <c r="I63" s="7">
         <v>0.02</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="2">
         <v>0.22</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6583,34 +6903,34 @@
       <c r="A64" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="2">
         <v>0.1</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="2">
         <v>0.16</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="2">
         <v>0.4</v>
       </c>
       <c r="F64" s="7">
         <v>0.04</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="2">
         <v>0.94</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="2">
         <v>0.84</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="2">
         <v>0.48</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6649,7 +6969,7 @@
       <c r="J65" s="7">
         <v>0</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K65" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6661,34 +6981,34 @@
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="2">
         <v>0.38</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="2">
         <v>0.38</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="2">
         <v>0.96</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="2">
         <v>0.84</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="2">
         <v>0.22</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="2">
         <v>0.44</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="2">
         <v>0.74</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="2">
         <v>0.48</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="2">
         <v>0.36</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K66" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -6727,7 +7047,7 @@
       <c r="J67" s="7">
         <v>0</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6745,29 +7065,29 @@
       <c r="C68" s="7">
         <v>0.06</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="2">
         <v>0.9</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="2">
         <v>0.9</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="2">
         <v>0.18</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="2">
         <v>0.48</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="2">
         <v>1</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="2">
         <v>0.22</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="2">
         <v>0.22</v>
       </c>
-      <c r="K68" s="9">
-        <f t="shared" ref="K68:K72" si="1">COUNTIF(B68:J68,"&gt;=0.1")</f>
+      <c r="K68" s="15">
+        <f t="shared" ref="K68:K74" si="1">COUNTIF(B68:J68,"&gt;=0.1")</f>
         <v>7</v>
       </c>
       <c r="M68" s="9" t="s">
@@ -6805,7 +7125,7 @@
       <c r="J69" s="7">
         <v>0</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K69" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6823,10 +7143,10 @@
       <c r="C70" s="7">
         <v>0</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="2">
         <v>0.88</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="2">
         <v>0.9</v>
       </c>
       <c r="F70" s="7">
@@ -6835,7 +7155,7 @@
       <c r="G70" s="7">
         <v>0</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="2">
         <v>1</v>
       </c>
       <c r="I70" s="7">
@@ -6844,7 +7164,7 @@
       <c r="J70" s="7">
         <v>0.02</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K70" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6883,7 +7203,7 @@
       <c r="J71" s="7">
         <v>0</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K71" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6901,7 +7221,7 @@
       <c r="C72" s="7">
         <v>0</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="2">
         <v>0.74</v>
       </c>
       <c r="E72" s="7">
@@ -6913,16 +7233,16 @@
       <c r="G72" s="7">
         <v>0</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="2">
         <v>0.9</v>
       </c>
       <c r="I72" s="7">
         <v>0</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="2">
         <v>0.26</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="15">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6932,6 +7252,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="9"/>
+      <c r="K73" s="15"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="7" t="s">
@@ -6941,38 +7262,39 @@
         <f>COUNTIF(B1:B72,"&gt;=0.1")</f>
         <v>10</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="15">
         <f t="shared" ref="C74:J74" si="2">COUNTIF(C1:C72,"&gt;=0.1")</f>
         <v>11</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="15">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="15">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="15">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="15">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="15">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="15">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="K74" s="15"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="7" t="s">
@@ -6982,37 +7304,37 @@
         <f xml:space="preserve"> B74/COUNT(B1:B72)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C75" s="9">
-        <f t="shared" ref="C75:J75" si="3" xml:space="preserve"> C74/COUNT(C1:C66)</f>
-        <v>0.171875</v>
-      </c>
-      <c r="D75" s="9">
+      <c r="C75" s="15">
+        <f t="shared" ref="C75:J75" si="3" xml:space="preserve"> C74/COUNT(C1:C72)</f>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="D75" s="15">
         <f t="shared" si="3"/>
-        <v>0.46875</v>
-      </c>
-      <c r="E75" s="9">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E75" s="15">
         <f t="shared" si="3"/>
-        <v>0.515625</v>
-      </c>
-      <c r="F75" s="9">
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="F75" s="15">
         <f t="shared" si="3"/>
-        <v>0.1875</v>
-      </c>
-      <c r="G75" s="9">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="G75" s="15">
         <f t="shared" si="3"/>
-        <v>0.4375</v>
-      </c>
-      <c r="H75" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H75" s="15">
         <f t="shared" si="3"/>
-        <v>0.609375</v>
-      </c>
-      <c r="I75" s="9">
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="I75" s="15">
         <f t="shared" si="3"/>
-        <v>0.3125</v>
-      </c>
-      <c r="J75" s="9">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J75" s="15">
         <f t="shared" si="3"/>
-        <v>0.40625</v>
+        <v>0.37142857142857144</v>
       </c>
     </row>
   </sheetData>
@@ -7023,4 +7345,987 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="10" width="9" style="11"/>
+    <col min="11" max="11" width="17.75" style="11" customWidth="1"/>
+    <col min="12" max="12" width="20" style="11" customWidth="1"/>
+    <col min="13" max="13" width="95.25" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <f>COUNTIF(B3:J3,"&gt;=0.1")</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K22" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="12" customFormat="1">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="12" customFormat="1">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="11">
+        <f>COUNTIF(B3:B25,"&gt;=0.1")</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <f>COUNTIF(C3:C25,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="15">
+        <f>COUNTIF(D3:D25,"&gt;=0.1")</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="15">
+        <f>COUNTIF(E3:E25,"&gt;=0.1")</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="15">
+        <f>COUNTIF(F3:F25,"&gt;=0.1")</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <f>COUNTIF(G3:G25,"&gt;=0.1")</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="15">
+        <f>COUNTIF(H3:H25,"&gt;=0.1")+2</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="15">
+        <f>COUNTIF(I3:I25,"&gt;=0.1")</f>
+        <v>5</v>
+      </c>
+      <c r="J26" s="15">
+        <f>COUNTIF(J3:J25,"&gt;=0.1")</f>
+        <v>4</v>
+      </c>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="11">
+        <f xml:space="preserve"> B26/COUNT(B3:B25)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="15">
+        <f t="shared" ref="C27:J27" si="1" xml:space="preserve"> C26/COUNT(C3:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="15">
+        <f xml:space="preserve"> H26/(COUNT(H3:H25)+2)</f>
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="I31" s="15"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="13:13">
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="13:13">
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="13:13">
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="13:13">
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="13:13">
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="13:13">
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="13:13">
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="13:13">
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="13:13">
+      <c r="M41" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kara\Documents\MRs-of-linear-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E5BD84-5B5F-4F8A-A3B1-DCF9A0055EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LR_GA" sheetId="1" r:id="rId1"/>
-    <sheet name="LR_NM" sheetId="2" r:id="rId2"/>
-    <sheet name="SVM_CVX_L2" sheetId="3" r:id="rId3"/>
+    <sheet name="GD" sheetId="1" r:id="rId1"/>
+    <sheet name="Newton" sheetId="2" r:id="rId2"/>
+    <sheet name="APG_L1" sheetId="4" r:id="rId3"/>
+    <sheet name="APG_L2" sheetId="5" r:id="rId4"/>
+    <sheet name="IPM_L1" sheetId="6" r:id="rId5"/>
+    <sheet name="IPM_L2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="245">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,99 +780,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datasets = CreateDataset(400,100,10,0,2,-1)</t>
+    <t>BUG2</t>
+  </si>
+  <si>
+    <t>Statistical</t>
+  </si>
+  <si>
+    <t>MR2</t>
+  </si>
+  <si>
+    <t>GV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUG1</t>
+    <t>n_samples = random.randint(50,200)</t>
+  </si>
+  <si>
+    <t>n_samples = random.randint(50,200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUG2</t>
-  </si>
-  <si>
-    <t>g = matrix(np.eye(data_num))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h = matrix(np.zeros([data_num, 1], np.float64)) + 1 </t>
-  </si>
-  <si>
-    <t>data_num = int(0.9*len(y))</t>
-  </si>
-  <si>
-    <t>b = matrix(10.0)</t>
-  </si>
-  <si>
-    <t>kernel = np.dot(1.264497305328897*X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 / C)</t>
-  </si>
-  <si>
-    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) / (.5 / C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p = matrix(kernel / np.outer(y, y))</t>
-  </si>
-  <si>
-    <t>p = matrix(kernel * np.outer(1.2021579542249134*y, y))</t>
-  </si>
-  <si>
-    <t>p = matrix(kernel * np.outer(y,0.5538015548853306*y))</t>
-  </si>
-  <si>
-    <t>q = matrix(+np.ones([data_num, 1], np.float64))</t>
-  </si>
-  <si>
-    <t>q = matrix(np.ones([data_num, 1], np.float64))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sol = solvers.qp(p,1.2118340236777827*q, g, h)</t>
-  </si>
-  <si>
-    <t>sol = solvers.qp(p,q+0.7660754521910417, g, h)</t>
-  </si>
-  <si>
-    <t>sol = solvers.qp(p, q,1.142670981012205*g, h)</t>
-  </si>
-  <si>
-    <t>kernel = np.dot(100.264497305328897*X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 / C)</t>
-  </si>
-  <si>
-    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5/C+0.5499684200369075)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /C+100.5499684200369075)</t>
-  </si>
-  <si>
-    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /-109.57093079972641*C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Statistical</t>
-  </si>
-  <si>
-    <t>err</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /-19.57093079972641*C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kernel = np.dot(X, np.transpose(X)) + np.diag(np.ones(data_num, np.float64)) * (.5 /109.57093079972641*C)</t>
+    <t>GV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,14 +855,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -946,7 +878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,13 +916,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1280,14 +1206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
@@ -1298,24 +1224,24 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,11 +1275,11 @@
       <c r="L2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="M2" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1363,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.76</v>
       </c>
@@ -1476,7 +1402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1518,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1641,7 +1567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1770,7 +1696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1812,7 +1738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1851,7 +1777,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1893,7 +1819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1935,7 +1861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1977,7 +1903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +1945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2061,7 +1987,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -2103,7 +2029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2187,7 +2113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2229,7 +2155,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2271,7 +2197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2313,7 +2239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2355,7 +2281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2397,7 +2323,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,7 +2365,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2481,7 +2407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2523,7 +2449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2565,7 +2491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2607,7 +2533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2649,7 +2575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2691,7 +2617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2733,7 +2659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2775,7 +2701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2817,7 +2743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2859,7 +2785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2901,7 +2827,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +2875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2991,7 +2917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -3036,7 +2962,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -3078,7 +3004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -3123,7 +3049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3165,7 +3091,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3207,7 +3133,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3249,7 +3175,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3291,7 +3217,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3341,7 +3267,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3383,7 +3309,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3425,7 +3351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3467,7 +3393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3509,7 +3435,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3551,7 +3477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -3593,7 +3519,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -3635,7 +3561,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3677,7 +3603,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -3719,7 +3645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>123</v>
       </c>
@@ -3761,7 +3687,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -3803,7 +3729,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -3845,7 +3771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -3887,7 +3813,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -3929,7 +3855,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
@@ -3971,7 +3897,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -4013,7 +3939,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
@@ -4055,7 +3981,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -4097,7 +4023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>146</v>
       </c>
@@ -4139,7 +4065,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>147</v>
       </c>
@@ -4181,7 +4107,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -4223,7 +4149,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
@@ -4262,7 +4188,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -4301,7 +4227,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4339,13 +4265,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -4353,40 +4279,40 @@
         <f>COUNTIF(B2:B73,"&gt;=0.1")</f>
         <v>7</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="13">
         <f t="shared" ref="C77:J77" si="2">COUNTIF(C2:C73,"&gt;=0.1")</f>
         <v>5</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="13">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="13">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="13">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="13">
         <f>COUNTIF(H2:H73,"&gt;=0.1")+4</f>
         <v>44</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="13">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="13">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -4394,23 +4320,23 @@
         <f xml:space="preserve"> B77/COUNT(B3:B76)</f>
         <v>9.8591549295774641E-2</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="13">
         <f t="shared" ref="C78:G78" si="3" xml:space="preserve"> C77/COUNT(C3:C76)</f>
         <v>7.0422535211267609E-2</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="13">
         <f t="shared" si="3"/>
         <v>0.29577464788732394</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="13">
         <f t="shared" si="3"/>
         <v>0.61971830985915488</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="13">
         <f t="shared" si="3"/>
         <v>5.6338028169014086E-2</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="13">
         <f t="shared" si="3"/>
         <v>0.40845070422535212</v>
       </c>
@@ -4419,12 +4345,29 @@
         <v>0.61971830985915488</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="C78:J78" si="4" xml:space="preserve"> I77/COUNT(I3:I76)</f>
+        <f t="shared" ref="I78:J78" si="4" xml:space="preserve"> I77/COUNT(I3:I76)</f>
         <v>0.19718309859154928</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="13">
         <f t="shared" si="4"/>
         <v>0.18309859154929578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4438,14 +4381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="7" customWidth="1"/>
@@ -4464,23 +4407,23 @@
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4518,7 +4461,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
@@ -4557,7 +4500,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
@@ -4588,7 +4531,7 @@
       <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K67" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
         <v>0</v>
       </c>
@@ -4596,7 +4539,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4627,7 +4570,7 @@
       <c r="J5" s="2">
         <v>0.2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4635,7 +4578,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -4666,7 +4609,7 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4674,7 +4617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -4705,7 +4648,7 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4713,7 +4656,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4687,7 @@
       <c r="J8" s="7">
         <v>0</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4752,7 +4695,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -4783,7 +4726,7 @@
       <c r="J9" s="2">
         <v>0.12</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4791,7 +4734,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -4823,7 +4766,7 @@
       <c r="J10" s="7">
         <v>0</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4831,7 +4774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -4863,7 +4806,7 @@
       <c r="J11" s="7">
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4871,7 +4814,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -4902,7 +4845,7 @@
       <c r="J12" s="2">
         <v>0.22</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4910,7 +4853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -4941,7 +4884,7 @@
       <c r="J13" s="7">
         <v>0</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4949,7 +4892,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -4980,7 +4923,7 @@
       <c r="J14" s="7">
         <v>0</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4988,7 +4931,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -5019,7 +4962,7 @@
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5027,7 +4970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -5058,7 +5001,7 @@
       <c r="J16" s="7">
         <v>0.02</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5066,7 +5009,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -5097,7 +5040,7 @@
       <c r="J17" s="2">
         <v>0.48</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5105,7 +5048,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -5136,7 +5079,7 @@
       <c r="J18" s="7">
         <v>0.06</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5144,7 +5087,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -5175,7 +5118,7 @@
       <c r="J19" s="7">
         <v>0</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5183,7 +5126,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -5214,7 +5157,7 @@
       <c r="J20" s="7">
         <v>0.06</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5222,7 +5165,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -5253,7 +5196,7 @@
       <c r="J21" s="7">
         <v>0</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5261,7 +5204,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -5292,7 +5235,7 @@
       <c r="J22" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5300,7 +5243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -5331,7 +5274,7 @@
       <c r="J23" s="7">
         <v>0</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5339,7 +5282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
@@ -5370,7 +5313,7 @@
       <c r="J24" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5378,7 +5321,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
@@ -5409,7 +5352,7 @@
       <c r="J25" s="2">
         <v>0.16</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5417,7 +5360,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -5448,7 +5391,7 @@
       <c r="J26" s="2">
         <v>0.18</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5456,7 +5399,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
@@ -5487,7 +5430,7 @@
       <c r="J27" s="7">
         <v>0.02</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5495,7 +5438,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
@@ -5526,7 +5469,7 @@
       <c r="J28" s="7">
         <v>0</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5534,7 +5477,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -5565,7 +5508,7 @@
       <c r="J29" s="2">
         <v>0.34</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5573,7 +5516,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5604,7 +5547,7 @@
       <c r="J30" s="2">
         <v>0.34</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5612,7 +5555,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -5643,7 +5586,7 @@
       <c r="J31" s="2">
         <v>0.4</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5651,7 +5594,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -5682,7 +5625,7 @@
       <c r="J32" s="7">
         <v>0</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5690,7 +5633,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -5721,7 +5664,7 @@
       <c r="J33" s="7">
         <v>0</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5729,7 +5672,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -5760,7 +5703,7 @@
       <c r="J34" s="2">
         <v>0.12</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5768,7 +5711,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -5799,7 +5742,7 @@
       <c r="J35" s="7">
         <v>0</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5807,7 +5750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -5838,7 +5781,7 @@
       <c r="J36" s="7">
         <v>0</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5846,7 +5789,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -5877,7 +5820,7 @@
       <c r="J37" s="7">
         <v>0</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5885,7 +5828,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -5916,7 +5859,7 @@
       <c r="J38" s="7">
         <v>0</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5924,7 +5867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -5955,7 +5898,7 @@
       <c r="J39" s="2">
         <v>0.1</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5963,7 +5906,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -5994,7 +5937,7 @@
       <c r="J40" s="2">
         <v>0.3</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6002,7 +5945,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -6033,7 +5976,7 @@
       <c r="J41" s="7">
         <v>0.04</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6041,7 +5984,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -6072,7 +6015,7 @@
       <c r="J42" s="7">
         <v>0</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6080,7 +6023,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>205</v>
       </c>
@@ -6111,7 +6054,7 @@
       <c r="J43" s="2">
         <v>0.22</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6119,7 +6062,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -6150,7 +6093,7 @@
       <c r="J44" s="7">
         <v>0.04</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -6158,7 +6101,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -6189,7 +6132,7 @@
       <c r="J45" s="7">
         <v>0.08</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -6197,7 +6140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -6228,7 +6171,7 @@
       <c r="J46" s="7">
         <v>0</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6236,7 +6179,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -6267,7 +6210,7 @@
       <c r="J47" s="2">
         <v>0.48</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6275,7 +6218,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -6306,7 +6249,7 @@
       <c r="J48" s="2">
         <v>0.2</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6314,7 +6257,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
@@ -6345,7 +6288,7 @@
       <c r="J49" s="7">
         <v>0.08</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6353,7 +6296,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
@@ -6384,7 +6327,7 @@
       <c r="J50" s="2">
         <v>0.18</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6392,7 +6335,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
@@ -6423,7 +6366,7 @@
       <c r="J51" s="7">
         <v>0</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6431,7 +6374,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>184</v>
       </c>
@@ -6462,7 +6405,7 @@
       <c r="J52" s="7">
         <v>0</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6470,7 +6413,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
@@ -6501,7 +6444,7 @@
       <c r="J53" s="2">
         <v>0.2</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6509,7 +6452,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
@@ -6540,7 +6483,7 @@
       <c r="J54" s="7">
         <v>0</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6548,7 +6491,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>122</v>
       </c>
@@ -6579,7 +6522,7 @@
       <c r="J55" s="7">
         <v>0.04</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -6587,7 +6530,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
@@ -6618,7 +6561,7 @@
       <c r="J56" s="7">
         <v>0</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6626,7 +6569,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>124</v>
       </c>
@@ -6657,7 +6600,7 @@
       <c r="J57" s="7">
         <v>0</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6665,7 +6608,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>125</v>
       </c>
@@ -6696,7 +6639,7 @@
       <c r="J58" s="2">
         <v>0.16</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -6704,7 +6647,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
@@ -6735,7 +6678,7 @@
       <c r="J59" s="2">
         <v>0.4</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -6743,7 +6686,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -6774,7 +6717,7 @@
       <c r="J60" s="7">
         <v>0</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6782,7 +6725,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>128</v>
       </c>
@@ -6813,7 +6756,7 @@
       <c r="J61" s="7">
         <v>0</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6821,7 +6764,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>129</v>
       </c>
@@ -6852,7 +6795,7 @@
       <c r="J62" s="7">
         <v>0</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6860,7 +6803,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>130</v>
       </c>
@@ -6891,7 +6834,7 @@
       <c r="J63" s="2">
         <v>0.22</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6899,7 +6842,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>131</v>
       </c>
@@ -6930,7 +6873,7 @@
       <c r="J64" s="2">
         <v>0.48</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6938,7 +6881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>146</v>
       </c>
@@ -6969,7 +6912,7 @@
       <c r="J65" s="7">
         <v>0</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6977,7 +6920,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
@@ -7008,7 +6951,7 @@
       <c r="J66" s="2">
         <v>0.36</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -7016,7 +6959,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
@@ -7047,7 +6990,7 @@
       <c r="J67" s="7">
         <v>0</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7055,7 +6998,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>149</v>
       </c>
@@ -7086,15 +7029,15 @@
       <c r="J68" s="2">
         <v>0.22</v>
       </c>
-      <c r="K68" s="15">
-        <f t="shared" ref="K68:K74" si="1">COUNTIF(B68:J68,"&gt;=0.1")</f>
+      <c r="K68" s="13">
+        <f t="shared" ref="K68:K72" si="1">COUNTIF(B68:J68,"&gt;=0.1")</f>
         <v>7</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>150</v>
       </c>
@@ -7125,7 +7068,7 @@
       <c r="J69" s="7">
         <v>0</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7133,7 +7076,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>151</v>
       </c>
@@ -7164,7 +7107,7 @@
       <c r="J70" s="7">
         <v>0.02</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7172,7 +7115,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>229</v>
       </c>
@@ -7203,7 +7146,7 @@
       <c r="J71" s="7">
         <v>0</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7211,7 +7154,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>230</v>
       </c>
@@ -7242,7 +7185,7 @@
       <c r="J72" s="2">
         <v>0.26</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7250,11 +7193,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
-      <c r="K73" s="15"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="K73" s="13"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>112</v>
       </c>
@@ -7262,41 +7205,41 @@
         <f>COUNTIF(B1:B72,"&gt;=0.1")</f>
         <v>10</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="13">
         <f t="shared" ref="C74:J74" si="2">COUNTIF(C1:C72,"&gt;=0.1")</f>
         <v>11</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="13">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="13">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="13">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="13">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="13">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="13">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="13">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="K74" s="15"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="K74" s="13"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>158</v>
       </c>
@@ -7304,37 +7247,54 @@
         <f xml:space="preserve"> B74/COUNT(B1:B72)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="13">
         <f t="shared" ref="C75:J75" si="3" xml:space="preserve"> C74/COUNT(C1:C72)</f>
         <v>0.15714285714285714</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="13">
         <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="13">
         <f t="shared" si="3"/>
         <v>0.47142857142857142</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="13">
         <f t="shared" si="3"/>
         <v>0.17142857142857143</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="13">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="13">
         <f t="shared" si="3"/>
         <v>0.55714285714285716</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="13">
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="13">
         <f t="shared" si="3"/>
         <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -7348,984 +7308,3013 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814309CD-124E-4581-BCB8-2B34DC6B7408}">
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="9" style="11"/>
-    <col min="11" max="11" width="17.75" style="11" customWidth="1"/>
-    <col min="12" max="12" width="20" style="11" customWidth="1"/>
-    <col min="13" max="13" width="95.25" style="11" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="11"/>
+    <col min="1" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.375" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14">
+        <f>COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <f>COUNTIF(B3:J3,"&gt;=0.1")</f>
-        <v>3</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <f t="shared" ref="K4:K22" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
-        <v>3</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="11" t="s">
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="11" t="s">
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="11" t="s">
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="K7" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="11" t="s">
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="K9" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="11" t="s">
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="11" t="s">
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="K14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11" t="s">
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11" t="s">
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="K16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="11" t="s">
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="11" t="s">
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="11" t="s">
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="11" t="s">
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11">
-        <v>0</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="12" customFormat="1">
-      <c r="B21" s="12">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.74</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="K21" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="12" customFormat="1">
-      <c r="B22" s="12">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="I22" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="11" t="s">
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="11">
-        <f>COUNTIF(B3:B25,"&gt;=0.1")</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="15">
-        <f>COUNTIF(C3:C25,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="15">
-        <f>COUNTIF(D3:D25,"&gt;=0.1")</f>
-        <v>3</v>
-      </c>
-      <c r="E26" s="15">
-        <f>COUNTIF(E3:E25,"&gt;=0.1")</f>
-        <v>5</v>
-      </c>
-      <c r="F26" s="15">
-        <f>COUNTIF(F3:F25,"&gt;=0.1")</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <f>COUNTIF(G3:G25,"&gt;=0.1")</f>
-        <v>4</v>
-      </c>
-      <c r="H26" s="15">
-        <f>COUNTIF(H3:H25,"&gt;=0.1")+2</f>
-        <v>6</v>
-      </c>
-      <c r="I26" s="15">
-        <f>COUNTIF(I3:I25,"&gt;=0.1")</f>
-        <v>5</v>
-      </c>
-      <c r="J26" s="15">
-        <f>COUNTIF(J3:J25,"&gt;=0.1")</f>
-        <v>4</v>
-      </c>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="11" t="s">
+      <c r="B63" s="14">
+        <f>COUNTIF(B4:B62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="11">
-        <f xml:space="preserve"> B26/COUNT(B3:B25)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C27" s="15">
-        <f t="shared" ref="C27:J27" si="1" xml:space="preserve"> C26/COUNT(C3:C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="F27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="G27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="15">
-        <f xml:space="preserve"> H26/(COUNT(H3:H25)+2)</f>
-        <v>0.3</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="I31" s="15"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="13:13">
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="13:13">
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="13:13">
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="13:13">
-      <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="13:13">
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="13:13">
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="13:13">
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="13:13">
-      <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="13:13">
-      <c r="M41" s="13"/>
+      <c r="B64" s="14" t="e">
+        <f>B63/COUNT(B4:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="14" t="e">
+        <f t="shared" ref="C64:J64" si="2">C63/COUNT(C4:C62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C614629-2762-4DCB-BEEC-E9929D616CE3}">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.375" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14">
+        <f>COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="14">
+        <f>COUNTIF(B4:B62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="14" t="e">
+        <f>B63/COUNT(B4:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="14" t="e">
+        <f t="shared" ref="C64:J64" si="2">C63/COUNT(C4:C62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9143D686-E3D2-4024-8E14-115394693A5E}">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.375" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14">
+        <f>COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="14">
+        <f>COUNTIF(B4:B62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="14" t="e">
+        <f>B63/COUNT(B4:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="14" t="e">
+        <f t="shared" ref="C64:J64" si="2">C63/COUNT(C4:C62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189B032C-22AB-4C6A-BE75-070EABE3522F}">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="9" style="14"/>
+    <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="25.375" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14">
+        <f>COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="K53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="12"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K59" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="12"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="14">
+        <f>COUNTIF(B4:B62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="14" t="e">
+        <f>B63/COUNT(B4:B62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C64" s="14" t="e">
+        <f t="shared" ref="C64:J64" si="2">C63/COUNT(C4:C62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kara\Documents\MRs-of-linear-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E5BD84-5B5F-4F8A-A3B1-DCF9A0055EBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GD" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="IPM_L1" sheetId="6" r:id="rId5"/>
     <sheet name="IPM_L2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="282">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,13 +801,131 @@
   <si>
     <t>GV</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_samples = random.randint(100,500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_samples = random.randint(100,200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0 = -15.5050347702091*x0.T*(p*x0) + q.T*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5/x0.T*(p*x0) + q.T*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5*x0.T*(p*x0) - q.T*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5*x0.T*(-10.140331281466956*p*x0) + q.T*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5*x0.T*(p*-23.065994992349946*x0) + q.T*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5*x0.T*(p*x0+3.1435762759526447) + q.T*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5*x0.T*(p*x0) + q.T*-3.4416504795506286*x0</t>
+  </si>
+  <si>
+    <t>L0 = 0.5*x0.T*(p*x0) + q.T*x0-14.769945141760754</t>
+  </si>
+  <si>
+    <t>g0 = p*x0 - q</t>
+  </si>
+  <si>
+    <t>g0 =2.0690731070393475*p*x0 + q</t>
+  </si>
+  <si>
+    <t>g0 = p*-1.8951950266208204*x0 + q</t>
+  </si>
+  <si>
+    <t>g0 = p*x0+5.606784940742563 + q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g0 = p*x0 +-5.644546647986916*q</t>
+  </si>
+  <si>
+    <t>g0 = p*x0 +q-2.9713929921949243</t>
+  </si>
+  <si>
+    <t>xp = x0 + l * g0</t>
+  </si>
+  <si>
+    <t>xp = x0 - l / g0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp =-2.5426718494525677*x0 - l * g0</t>
+  </si>
+  <si>
+    <t>xp =x0+2.6287370016445655 - l * g0</t>
+  </si>
+  <si>
+    <t>xp = x0 -10.884667557411248*l * g0</t>
+  </si>
+  <si>
+    <t>xp = x0 -l+15.643660653724513 * g0</t>
+  </si>
+  <si>
+    <t>xp = x0 - l *-8.773431822193274*g0</t>
+  </si>
+  <si>
+    <t>xp = x0 - l *g0+2.4710787568352073</t>
+  </si>
+  <si>
+    <t>xp[xp &lt; low] = None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xp[xp &gt; up] = None</t>
+  </si>
+  <si>
+    <t>Lx = -14.15833905696595*xp.T*(p*xp) + q.T*xp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lx = 0.5/xp.T*(p*xp) + q.T*xp</t>
+  </si>
+  <si>
+    <t>Lx = 0.5*xp.T*(p*xp) - q.T*xp</t>
+  </si>
+  <si>
+    <t>Lx = 0.5*xp.T*(-6.961423106348099*p*xp) + q.T*xp</t>
+  </si>
+  <si>
+    <t>Lx = 0.5*xp.T*(p*7.832566598579222*xp) + q.T*xp</t>
+  </si>
+  <si>
+    <t>Lx = 0.5*xp.T*(p*xp-6.697994854855435) + q.T*xp</t>
+  </si>
+  <si>
+    <t>Lx = 0.5*xp.T*(p*xp) + q.T*-10.555053994534259*xp</t>
+  </si>
+  <si>
+    <t>Lx = 0.5*xp.T*(p*xp) + q.T*xp+4.7216881371679325</t>
+  </si>
+  <si>
+    <t>gt = (x0+xp) / l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt = (7.32145742272714*x0-xp) / l</t>
+  </si>
+  <si>
+    <t>gt = (x0-7.79137563417059-xp) / l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +972,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -878,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +1052,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,14 +1341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView topLeftCell="D55" workbookViewId="0">
       <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
@@ -1224,24 +1359,24 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1414,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1498,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="2">
         <v>0.76</v>
       </c>
@@ -1402,7 +1537,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1567,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1612,7 +1747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1654,7 +1789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1738,7 +1873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1777,7 +1912,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1819,7 +1954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +2038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1945,7 +2080,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1987,7 +2122,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -2029,7 +2164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2071,7 +2206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2113,7 +2248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2155,7 +2290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2197,7 +2332,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2239,7 +2374,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2281,7 +2416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2323,7 +2458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2500,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,7 +2542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,7 +2584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2491,7 +2626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2533,7 +2668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2575,7 +2710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2617,7 +2752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2701,7 +2836,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2743,7 +2878,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2785,7 +2920,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2827,7 +2962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2875,7 +3010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2917,7 +3052,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2962,7 +3097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -3004,7 +3139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -3049,7 +3184,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3091,7 +3226,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3133,7 +3268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3175,7 +3310,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3217,7 +3352,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3267,7 +3402,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3309,7 +3444,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3351,7 +3486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3393,7 +3528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3435,7 +3570,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3477,7 +3612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -3519,7 +3654,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -3561,7 +3696,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3603,7 +3738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -3645,7 +3780,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="4" t="s">
         <v>123</v>
       </c>
@@ -3687,7 +3822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -3729,7 +3864,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -3771,7 +3906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -3813,7 +3948,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -3855,7 +3990,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
@@ -3897,7 +4032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -3939,7 +4074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
@@ -3981,7 +4116,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -4023,7 +4158,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="4" t="s">
         <v>146</v>
       </c>
@@ -4065,7 +4200,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="4" t="s">
         <v>147</v>
       </c>
@@ -4107,7 +4242,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -4149,7 +4284,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
@@ -4188,7 +4323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -4227,7 +4362,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4265,13 +4400,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="4"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -4312,7 +4447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="18" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -4353,7 +4488,7 @@
         <v>0.18309859154929578</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>244</v>
       </c>
@@ -4381,14 +4516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="7" customWidth="1"/>
@@ -4407,23 +4542,23 @@
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4461,7 +4596,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
@@ -4500,7 +4635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
@@ -4539,7 +4674,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4578,7 +4713,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -4617,7 +4752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -4656,7 +4791,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4695,7 +4830,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -4734,7 +4869,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -4774,7 +4909,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -4814,7 +4949,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -4853,7 +4988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -4892,7 +5027,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -4931,7 +5066,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -4970,7 +5105,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -5009,7 +5144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -5048,7 +5183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -5087,7 +5222,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -5126,7 +5261,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -5165,7 +5300,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -5204,7 +5339,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +5378,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -5282,7 +5417,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
@@ -5321,7 +5456,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
@@ -5360,7 +5495,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -5399,7 +5534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
@@ -5438,7 +5573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
@@ -5477,7 +5612,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -5516,7 +5651,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5555,7 +5690,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -5594,7 +5729,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -5633,7 +5768,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -5672,7 +5807,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -5711,7 +5846,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -5750,7 +5885,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -5789,7 +5924,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -5828,7 +5963,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -5867,7 +6002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -5906,7 +6041,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -5945,7 +6080,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -5984,7 +6119,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -6023,7 +6158,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
         <v>205</v>
       </c>
@@ -6062,7 +6197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -6101,7 +6236,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -6140,7 +6275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -6179,7 +6314,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -6218,7 +6353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -6257,7 +6392,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
@@ -6296,7 +6431,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
@@ -6335,7 +6470,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
@@ -6374,7 +6509,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="7" t="s">
         <v>184</v>
       </c>
@@ -6413,7 +6548,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
@@ -6452,7 +6587,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
@@ -6491,7 +6626,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="7" t="s">
         <v>122</v>
       </c>
@@ -6530,7 +6665,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
@@ -6569,7 +6704,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="9" t="s">
         <v>124</v>
       </c>
@@ -6608,7 +6743,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="9" t="s">
         <v>125</v>
       </c>
@@ -6647,7 +6782,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
@@ -6686,7 +6821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -6725,7 +6860,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="9" t="s">
         <v>128</v>
       </c>
@@ -6764,7 +6899,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="9" t="s">
         <v>129</v>
       </c>
@@ -6803,7 +6938,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="9" t="s">
         <v>130</v>
       </c>
@@ -6842,7 +6977,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="9" t="s">
         <v>131</v>
       </c>
@@ -6881,7 +7016,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="9" t="s">
         <v>146</v>
       </c>
@@ -6920,7 +7055,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
@@ -6959,7 +7094,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
@@ -6998,7 +7133,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="9" t="s">
         <v>149</v>
       </c>
@@ -7037,7 +7172,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="9" t="s">
         <v>150</v>
       </c>
@@ -7076,7 +7211,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="9" t="s">
         <v>151</v>
       </c>
@@ -7115,7 +7250,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="9" t="s">
         <v>229</v>
       </c>
@@ -7154,7 +7289,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72" s="9" t="s">
         <v>230</v>
       </c>
@@ -7193,11 +7328,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73" s="9"/>
       <c r="K73" s="13"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" s="7" t="s">
         <v>112</v>
       </c>
@@ -7239,7 +7374,7 @@
       </c>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" s="7" t="s">
         <v>158</v>
       </c>
@@ -7280,7 +7415,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" s="7" t="s">
         <v>244</v>
       </c>
@@ -7308,14 +7443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814309CD-124E-4581-BCB8-2B34DC6B7408}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -7324,20 +7459,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
+      <c r="B1" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7375,10 +7510,28 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
       <c r="H3" s="14">
         <v>0</v>
       </c>
@@ -7389,17 +7542,17 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="14">
-        <f>COUNTIF(B4:J4,"&gt;=0.1")</f>
-        <v>0</v>
+        <f>COUNTIF(APG_L2!B4:J4,"&gt;=0.1")</f>
+        <v>1</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -7409,7 +7562,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7572,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -7429,7 +7582,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -7439,7 +7592,7 @@
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -7449,7 +7602,7 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -7459,7 +7612,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -7469,7 +7622,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
@@ -7479,7 +7632,7 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -7489,7 +7642,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -7499,7 +7652,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -7509,7 +7662,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -7519,7 +7672,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -7529,7 +7682,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -7539,7 +7692,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -7549,7 +7702,7 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -7559,7 +7712,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -7569,7 +7722,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -7579,7 +7732,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -7589,7 +7742,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -7599,7 +7752,7 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -7609,7 +7762,7 @@
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -7619,7 +7772,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
@@ -7629,7 +7782,7 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -7639,7 +7792,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -7649,7 +7802,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -7659,7 +7812,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -7669,7 +7822,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -7679,7 +7832,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -7689,7 +7842,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -7699,7 +7852,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -7709,7 +7862,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -7719,7 +7872,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -7729,7 +7882,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
@@ -7739,7 +7892,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
@@ -7749,7 +7902,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -7759,7 +7912,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -7769,7 +7922,7 @@
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
@@ -7779,7 +7932,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
@@ -7789,7 +7942,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -7799,7 +7952,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -7809,7 +7962,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
@@ -7819,7 +7972,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
@@ -7829,7 +7982,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
@@ -7839,7 +7992,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -7849,7 +8002,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
@@ -7859,7 +8012,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
@@ -7869,7 +8022,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -7879,7 +8032,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
@@ -7889,7 +8042,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
@@ -7899,7 +8052,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -7909,7 +8062,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -7919,7 +8072,7 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
@@ -7929,7 +8082,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
@@ -7939,7 +8092,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
@@ -7949,7 +8102,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
@@ -7959,7 +8112,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
@@ -7969,85 +8122,85 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B63" s="14">
-        <f>COUNTIF(B4:B62,"&gt;=0.1")</f>
+        <f>COUNTIF(B5:B62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="C63" s="14">
-        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.1")</f>
+        <f>COUNTIF(C5:C62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="D63" s="14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(D5:D62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E5:E62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="F63" s="14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F5:F62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="G63" s="14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(G5:G62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="H63" s="14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(H5:H62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="I63" s="14">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(I5:I62,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="J63" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <f>COUNTIF(J5:J62,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B64" s="14" t="e">
-        <f>B63/COUNT(B4:B62)</f>
+        <f>B63/COUNT(B5:B62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C64" s="14" t="e">
-        <f t="shared" ref="C64:J64" si="2">C63/COUNT(C4:C62)</f>
+        <f>C63/COUNT(C5:C62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>D63/COUNT(D5:D62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>E63/COUNT(E5:E62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>F63/COUNT(F5:F62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>G63/COUNT(G5:G62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>H63/COUNT(H5:H62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>I63/COUNT(I5:I62)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J64" s="14" t="e">
-        <f t="shared" si="2"/>
+        <f>J63/COUNT(J5:J62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8057,18 +8210,19 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C614629-2762-4DCB-BEEC-E9929D616CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -8077,20 +8231,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
+      <c r="B1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8128,680 +8282,1713 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
       <c r="K4" s="14">
-        <f>COUNTIF(B4:J4,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <f>COUNTIF(B4:J4,"&gt;=0.05")</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="14">
-        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.05")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J11" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="12"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
+        <v>1</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="14">
+        <v>0</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="14">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="12"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="14">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="12"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="14">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="14">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K35" s="15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="14">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="B37" s="14">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="17" customFormat="1">
+      <c r="A38" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="15">
+        <v>0</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B63" s="14">
-        <f>COUNTIF(B4:B62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="14">
-        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="14">
+        <f>COUNTIF(B4:B62,"&gt;=0.05")</f>
+        <v>4</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.05")</f>
+        <v>4</v>
+      </c>
+      <c r="D63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
+        <v>18</v>
+      </c>
+      <c r="F63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="14">
+        <v>4</v>
+      </c>
+      <c r="G63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="14">
+        <v>9</v>
+      </c>
+      <c r="H63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="14">
+        <v>17</v>
+      </c>
+      <c r="I63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="14">
+        <v>8</v>
+      </c>
+      <c r="J63" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="14" t="e">
+      <c r="B64" s="14">
         <f>B63/COUNT(B4:B62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C64" s="14" t="e">
-        <f t="shared" ref="C64:J64" si="2">C63/COUNT(C4:C62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="C64" s="14">
+        <f>C63/COUNT(C4:C62)</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="D64" s="14">
+        <f>D63/COUNT(D4:D62)</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E64" s="14">
+        <f>E63/COUNT(E4:E62)</f>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="F64" s="14">
+        <f>F63/COUNT(F4:F62)</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="G64" s="14">
+        <f>G63/COUNT(G4:G62)</f>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="H64" s="14">
+        <f>H63/COUNT(H4:H62)</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="I64" s="14">
+        <f>I63/COUNT(I4:I62)</f>
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="J64" s="14">
+        <f>J63/COUNT(J4:J62)</f>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -8814,14 +10001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9143D686-E3D2-4024-8E14-115394693A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -8830,20 +10017,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8881,7 +10068,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
@@ -8895,7 +10082,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -8905,7 +10092,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -8915,7 +10102,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -8925,7 +10112,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -8935,7 +10122,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -8945,7 +10132,7 @@
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -8955,7 +10142,7 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -8965,7 +10152,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -8975,7 +10162,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
@@ -8985,7 +10172,7 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -8995,7 +10182,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -9005,7 +10192,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -9015,7 +10202,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -9025,7 +10212,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -9035,7 +10222,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -9045,7 +10232,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -9055,7 +10242,7 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -9065,7 +10252,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -9075,7 +10262,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -9085,7 +10272,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -9095,7 +10282,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -9105,7 +10292,7 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -9115,7 +10302,7 @@
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -9125,7 +10312,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
@@ -9135,7 +10322,7 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -9145,7 +10332,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -9155,7 +10342,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -9165,7 +10352,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -9175,7 +10362,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -9185,7 +10372,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -9195,7 +10382,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -9205,7 +10392,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -9215,7 +10402,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -9225,7 +10412,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -9235,7 +10422,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
@@ -9245,7 +10432,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
@@ -9255,7 +10442,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -9265,7 +10452,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -9275,7 +10462,7 @@
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
@@ -9285,7 +10472,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
@@ -9295,7 +10482,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -9305,7 +10492,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -9315,7 +10502,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
@@ -9325,7 +10512,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
@@ -9335,7 +10522,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
@@ -9345,7 +10532,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -9355,7 +10542,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
@@ -9365,7 +10552,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
@@ -9375,7 +10562,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -9385,7 +10572,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
@@ -9395,7 +10582,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
@@ -9405,7 +10592,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -9415,7 +10602,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -9425,7 +10612,7 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
@@ -9435,7 +10622,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
@@ -9445,7 +10632,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
@@ -9455,7 +10642,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
@@ -9465,7 +10652,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
@@ -9475,7 +10662,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
@@ -9516,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>
@@ -9567,14 +10754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189B032C-22AB-4C6A-BE75-070EABE3522F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -9583,20 +10770,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -9634,7 +10821,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
@@ -9648,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -9658,7 +10845,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -9668,7 +10855,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -9678,7 +10865,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -9688,7 +10875,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -9698,7 +10885,7 @@
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -9708,7 +10895,7 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -9718,7 +10905,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -9728,7 +10915,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
@@ -9738,7 +10925,7 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -9748,7 +10935,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -9758,7 +10945,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -9768,7 +10955,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -9778,7 +10965,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -9788,7 +10975,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -9798,7 +10985,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -9808,7 +10995,7 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -9818,7 +11005,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -9828,7 +11015,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -9838,7 +11025,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -9848,7 +11035,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -9858,7 +11045,7 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -9868,7 +11055,7 @@
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -9878,7 +11065,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
@@ -9888,7 +11075,7 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -9898,7 +11085,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -9908,7 +11095,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -9918,7 +11105,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -9928,7 +11115,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -9938,7 +11125,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -9948,7 +11135,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -9958,7 +11145,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -9968,7 +11155,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -9978,7 +11165,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -9988,7 +11175,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
@@ -9998,7 +11185,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
@@ -10008,7 +11195,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -10018,7 +11205,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -10028,7 +11215,7 @@
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
@@ -10038,7 +11225,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
@@ -10048,7 +11235,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -10058,7 +11245,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -10068,7 +11255,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
@@ -10078,7 +11265,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
@@ -10088,7 +11275,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
@@ -10098,7 +11285,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -10108,7 +11295,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
@@ -10118,7 +11305,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
@@ -10128,7 +11315,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -10138,7 +11325,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
@@ -10148,7 +11335,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
@@ -10158,7 +11345,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -10168,7 +11355,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -10178,7 +11365,7 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
@@ -10188,7 +11375,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
@@ -10198,7 +11385,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
@@ -10208,7 +11395,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
@@ -10218,7 +11405,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
@@ -10228,7 +11415,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
@@ -10269,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kara\Documents\MRs-of-linear-models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DB53B-47F6-496A-B3BF-B02D18178CD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GD" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="IPM_L1" sheetId="6" r:id="rId5"/>
     <sheet name="IPM_L2" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="370">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -919,13 +920,283 @@
   </si>
   <si>
     <t>gt = (x0-7.79137563417059-xp) / l</t>
+  </si>
+  <si>
+    <t>BUG71</t>
+  </si>
+  <si>
+    <t>BUG72</t>
+  </si>
+  <si>
+    <t>BUG73</t>
+  </si>
+  <si>
+    <t>BUG74</t>
+  </si>
+  <si>
+    <t>BUG75</t>
+  </si>
+  <si>
+    <t>BUG76</t>
+  </si>
+  <si>
+    <t>BUG77</t>
+  </si>
+  <si>
+    <t>BUG78</t>
+  </si>
+  <si>
+    <t>BUG79</t>
+  </si>
+  <si>
+    <t>BUG80</t>
+  </si>
+  <si>
+    <t>BUG81</t>
+  </si>
+  <si>
+    <t>BUG82</t>
+  </si>
+  <si>
+    <t>BUG83</t>
+  </si>
+  <si>
+    <t>BUG84</t>
+  </si>
+  <si>
+    <t>BUG85</t>
+  </si>
+  <si>
+    <t>BUG86</t>
+  </si>
+  <si>
+    <t>BUG87</t>
+  </si>
+  <si>
+    <t>BUG88</t>
+  </si>
+  <si>
+    <t>BUG89</t>
+  </si>
+  <si>
+    <t>BUG90</t>
+  </si>
+  <si>
+    <t>BUG91</t>
+  </si>
+  <si>
+    <t>BUG92</t>
+  </si>
+  <si>
+    <t>BUG93</t>
+  </si>
+  <si>
+    <t>BUG94</t>
+  </si>
+  <si>
+    <t>BUG95</t>
+  </si>
+  <si>
+    <t>BUG96</t>
+  </si>
+  <si>
+    <t>BUG97</t>
+  </si>
+  <si>
+    <t>gt = (x0-1.880627252315042*xp) / l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt = (x0-xp+2.498862030074089) / l</t>
+  </si>
+  <si>
+    <t>if Lx &gt; L0 + l *(g0.T*gt) + 0.5*l*gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>if Lx &gt; L0 - l /(g0.T*gt) + 0.5*l*gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>if Lx &gt; L0 - l *(g0.T*gt) - 0.5*l*gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>if Lx &gt; L0 - l *(g0.T*gt) + 9.978284503906696*l*gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>if Lx &gt; L0 - l *(g0.T*gt) + 0.5/l*gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>if Lx &gt; L0 - l *(g0.T*gt) + 0.5*l/gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>if Lx &gt;-0.04277232427488231*L0 - l *(g0.T*gt) + 0.5*l*gt.T*(gt):</t>
+  </si>
+  <si>
+    <t>l = beta / l</t>
+  </si>
+  <si>
+    <t>l = None</t>
+  </si>
+  <si>
+    <t>l = 15.283471226798135/v[-1] - 1e-10</t>
+  </si>
+  <si>
+    <t>l = 1*v[-1] - 1e-10</t>
+  </si>
+  <si>
+    <t>l = 1/v[+1] - 1e-10</t>
+  </si>
+  <si>
+    <t>l = 1/v[-1] - -12.446115946862614</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(-1.699072271898591*l, y, p, q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l-2.031924074839612, y, p, q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l,9.028476702647051*y, p, q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l,y-9.369894620260128, p, q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y,-2.2828246702321393*p, q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y,p+6.417720320061652, q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y, p,-3.676319791722907*q, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y, p,q-10.731362909155685, low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y, p, q,-12.738969988167472*low, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y, p, q,low+0.9651926168002269, up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y, p, q, low,7.152263862719689*up)</t>
+  </si>
+  <si>
+    <t>x, l = backtracking(l, y, p, q, low,up-2.7091124695693987)</t>
+  </si>
+  <si>
+    <t>rnormw = np.linalg.norm(y+x)</t>
+  </si>
+  <si>
+    <t>rnormw = np.linalg.norm(7.713511156550642*y-x)</t>
+  </si>
+  <si>
+    <t>rnormw = np.linalg.norm(y+15.506072995435964-x)</t>
+  </si>
+  <si>
+    <t>rnormw = np.linalg.norm(y--7.260099861685836*x)</t>
+  </si>
+  <si>
+    <t>rnormw = np.linalg.norm(y-x+10.994464183259193)</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(15.722344942920401*X, np.transpose(X))</t>
+  </si>
+  <si>
+    <t>kernel = np.dot(X+6.3956580021587675, np.transpose(X))</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(6.676261660866649*y, y))) + np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(y-1.3404092645508225, y))) + np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(y,9.382455970104392*y))) + np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(y,y-8.288700294895927))) + np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(-7.7160381355887715*kernel,np.outer(y, y))) + np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel+6.84107838351586,np.outer(y, y))) + np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(y, y))) - np.diag(np.ones(data_num, np.float64)) * .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(y, y))) + np.diag(np.ones(data_num, np.float64)) / .5/C</t>
+  </si>
+  <si>
+    <t>p = np.matrix(np.multiply(kernel,np.outer(y, y))) + np.diag(np.ones(data_num, np.float64)) * .5/C-7.079928055540069</t>
+  </si>
+  <si>
+    <t>q = np.matrix(+np.ones([data_num, 1], np.float64))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounds = (-1.550609157307154, np.inf)</t>
+  </si>
+  <si>
+    <t>alpha_svs = projected_apg(-7.577295388723052*p, q, bounds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha_svs = projected_apg(p+4.274278059341052, q, bounds)</t>
+  </si>
+  <si>
+    <t>alpha_svs = projected_apg(p,11.107009459786969*q, bounds)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpha_svs = projected_apg(p,q-2.3028199457829266, bounds)</t>
+  </si>
+  <si>
+    <t>y1 = np.reshape(-7.0765050307808695*y, (-1, 1))</t>
+  </si>
+  <si>
+    <t>y1 = np.reshape(y+4.291167809717235, (-1, 1))</t>
+  </si>
+  <si>
+    <t>lambda1 = np.multiply(-3.386021280416647*y1,alpha1)</t>
+  </si>
+  <si>
+    <t>lambda1 = np.multiply(y1+1.6899855540171966,alpha1)</t>
+  </si>
+  <si>
+    <t>lambda1 = np.multiply(y1,-5.469951087970841*alpha1)</t>
+  </si>
+  <si>
+    <t>lambda1 = np.multiply(y1,alpha1+11.15227450856586)</t>
+  </si>
+  <si>
+    <t>w = np.dot(X.T,19.77433138349803*lambda1)</t>
+  </si>
+  <si>
+    <t>w = np.dot(X.T,lambda1+7.564920740366653)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clf = Clf(w+19.56054959138425, b)</t>
+  </si>
+  <si>
+    <t>clf = Clf(w,-0.6046720387058434*b)</t>
+  </si>
+  <si>
+    <t>clf = Clf(w,b-0.09988792714454299)</t>
+  </si>
+  <si>
+    <t>gt = (x0-xp) * l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +1252,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1004,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1346,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,14 +1642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView topLeftCell="D55" workbookViewId="0">
       <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="1"/>
     <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
@@ -1359,24 +1660,24 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1715,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>0.76</v>
       </c>
@@ -1537,7 +1838,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1702,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1747,7 +2048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1789,7 +2090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1831,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1873,7 +2174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -1912,7 +2213,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1954,7 +2255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1996,7 +2297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2038,7 +2339,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -2080,7 +2381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2122,7 +2423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -2164,7 +2465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2206,7 +2507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2248,7 +2549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2332,7 +2633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2374,7 +2675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2416,7 +2717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2458,7 +2759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -2500,7 +2801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2542,7 +2843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2584,7 +2885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2626,7 +2927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,7 +2969,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +3011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2752,7 +3053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2794,7 +3095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2836,7 +3137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2878,7 +3179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2920,7 +3221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2962,7 +3263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -3010,7 +3311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -3052,7 +3353,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -3097,7 +3398,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -3139,7 +3440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -3184,7 +3485,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -3226,7 +3527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -3268,7 +3569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -3310,7 +3611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -3352,7 +3653,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3402,7 +3703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3486,7 +3787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3528,7 +3829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3570,7 +3871,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3612,7 +3913,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>132</v>
       </c>
@@ -3654,7 +3955,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
@@ -3696,7 +3997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>121</v>
       </c>
@@ -3738,7 +4039,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>122</v>
       </c>
@@ -3780,7 +4081,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>123</v>
       </c>
@@ -3822,7 +4123,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>124</v>
       </c>
@@ -3864,7 +4165,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>125</v>
       </c>
@@ -3906,7 +4207,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -3948,7 +4249,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
@@ -3990,7 +4291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
@@ -4032,7 +4333,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -4074,7 +4375,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>130</v>
       </c>
@@ -4116,7 +4417,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>131</v>
       </c>
@@ -4158,7 +4459,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>146</v>
       </c>
@@ -4200,7 +4501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>147</v>
       </c>
@@ -4242,7 +4543,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>148</v>
       </c>
@@ -4284,7 +4585,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
@@ -4323,7 +4624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -4362,7 +4663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>151</v>
       </c>
@@ -4400,13 +4701,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -4447,7 +4748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1">
+    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -4488,7 +4789,7 @@
         <v>0.18309859154929578</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>244</v>
       </c>
@@ -4516,14 +4817,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="7" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="7" customWidth="1"/>
@@ -4542,23 +4843,23 @@
     <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4596,7 +4897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>160</v>
       </c>
@@ -4635,7 +4936,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
@@ -4674,7 +4975,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -4713,7 +5014,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +5053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -4791,7 +5092,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4830,7 +5131,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -4869,7 +5170,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -4909,7 +5210,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>162</v>
       </c>
@@ -4949,7 +5250,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -4988,7 +5289,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -5027,7 +5328,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -5066,7 +5367,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -5105,7 +5406,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -5144,7 +5445,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -5183,7 +5484,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -5222,7 +5523,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -5261,7 +5562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>37</v>
       </c>
@@ -5300,7 +5601,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -5339,7 +5640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -5378,7 +5679,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
@@ -5417,7 +5718,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
@@ -5456,7 +5757,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>42</v>
       </c>
@@ -5495,7 +5796,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -5534,7 +5835,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>44</v>
       </c>
@@ -5573,7 +5874,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
@@ -5612,7 +5913,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>46</v>
       </c>
@@ -5651,7 +5952,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>47</v>
       </c>
@@ -5690,7 +5991,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -5729,7 +6030,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>49</v>
       </c>
@@ -5768,7 +6069,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
@@ -5807,7 +6108,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>51</v>
       </c>
@@ -5846,7 +6147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
@@ -5885,7 +6186,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
@@ -5924,7 +6225,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>54</v>
       </c>
@@ -5963,7 +6264,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>55</v>
       </c>
@@ -6002,7 +6303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
@@ -6041,7 +6342,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -6080,7 +6381,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>58</v>
       </c>
@@ -6119,7 +6420,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
@@ -6158,7 +6459,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>205</v>
       </c>
@@ -6197,7 +6498,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>61</v>
       </c>
@@ -6236,7 +6537,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>62</v>
       </c>
@@ -6275,7 +6576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>63</v>
       </c>
@@ -6314,7 +6615,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>64</v>
       </c>
@@ -6353,7 +6654,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>65</v>
       </c>
@@ -6392,7 +6693,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
@@ -6431,7 +6732,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
@@ -6470,7 +6771,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>68</v>
       </c>
@@ -6509,7 +6810,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>184</v>
       </c>
@@ -6548,7 +6849,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
@@ -6587,7 +6888,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>121</v>
       </c>
@@ -6626,7 +6927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>122</v>
       </c>
@@ -6665,7 +6966,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>123</v>
       </c>
@@ -6704,7 +7005,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>124</v>
       </c>
@@ -6743,7 +7044,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>125</v>
       </c>
@@ -6782,7 +7083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>126</v>
       </c>
@@ -6821,7 +7122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>127</v>
       </c>
@@ -6860,7 +7161,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>128</v>
       </c>
@@ -6899,7 +7200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>129</v>
       </c>
@@ -6938,7 +7239,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>130</v>
       </c>
@@ -6977,7 +7278,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>131</v>
       </c>
@@ -7016,7 +7317,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>146</v>
       </c>
@@ -7055,7 +7356,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>147</v>
       </c>
@@ -7094,7 +7395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>148</v>
       </c>
@@ -7133,7 +7434,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>149</v>
       </c>
@@ -7172,7 +7473,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>150</v>
       </c>
@@ -7211,7 +7512,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>151</v>
       </c>
@@ -7250,7 +7551,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>229</v>
       </c>
@@ -7289,7 +7590,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>230</v>
       </c>
@@ -7328,11 +7629,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="K73" s="13"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>112</v>
       </c>
@@ -7374,7 +7675,7 @@
       </c>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>158</v>
       </c>
@@ -7415,7 +7716,7 @@
         <v>0.37142857142857144</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>244</v>
       </c>
@@ -7443,14 +7744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -7459,20 +7760,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7510,7 +7811,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
@@ -7542,107 +7843,376 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
       <c r="K4" s="14">
         <f>COUNTIF(APG_L2!B4:J4,"&gt;=0.1")</f>
         <v>1</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.03</v>
+      </c>
       <c r="K5" s="14">
-        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
+        <f t="shared" ref="K5:K68" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
         <v>0</v>
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
       <c r="K6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
       <c r="K7" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.03</v>
+      </c>
       <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
       <c r="K9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
       <c r="K10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
       <c r="K11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.03</v>
+      </c>
       <c r="K12" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
       <c r="K13" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -7652,7 +8222,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -7662,7 +8232,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -7672,7 +8242,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -7682,7 +8252,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -7692,7 +8262,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -7702,7 +8272,7 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -7712,7 +8282,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -7722,7 +8292,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -7732,7 +8302,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -7742,7 +8312,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -7752,7 +8322,7 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -7762,7 +8332,7 @@
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -7772,7 +8342,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
@@ -7782,7 +8352,7 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -7792,7 +8362,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -7802,7 +8372,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -7812,7 +8382,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -7822,7 +8392,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -7832,7 +8402,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -7842,7 +8412,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -7852,7 +8422,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -7862,7 +8432,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -7872,7 +8442,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -7882,7 +8452,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
@@ -7892,7 +8462,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
@@ -7902,7 +8472,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -7912,7 +8482,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -7922,7 +8492,7 @@
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
@@ -7932,7 +8502,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
@@ -7942,7 +8512,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -7952,7 +8522,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -7962,7 +8532,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
@@ -7972,7 +8542,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
@@ -7982,7 +8552,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
@@ -7992,7 +8562,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -8002,7 +8572,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
@@ -8012,7 +8582,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
@@ -8022,7 +8592,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -8032,7 +8602,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
@@ -8042,7 +8612,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
@@ -8052,7 +8622,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -8062,7 +8632,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -8072,7 +8642,7 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
@@ -8082,7 +8652,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
@@ -8092,7 +8662,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
@@ -8102,7 +8672,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
@@ -8112,7 +8682,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
@@ -8122,86 +8692,416 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="14" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K62" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="12"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K63" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="12"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="12"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="12"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="12"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K67" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="12"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="12"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K69" s="16">
+        <f t="shared" ref="K69:K94" si="1">COUNTIF(B69:J69,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="12"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K70" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="12"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K71" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="12"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K72" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="12"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="K73" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="12"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="K74" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="12"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K75" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="12"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="12"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K77" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="12"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="K78" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="12"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="K79" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="12"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="K80" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="12"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="K81" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="12"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="K82" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="12"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="K83" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="12"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="K84" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="12"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="K85" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="12"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="K86" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="12"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="K87" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="12"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="K88" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="12"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="K89" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="12"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="K90" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="12"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K91" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="12"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K92" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="12"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="K93" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="12"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K94" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="12"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="14">
-        <f>COUNTIF(B5:B62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="14">
-        <f>COUNTIF(C5:C62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="14">
-        <f>COUNTIF(D5:D62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="14">
-        <f>COUNTIF(E5:E62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
-        <f>COUNTIF(F5:F62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="14">
-        <f>COUNTIF(G5:G62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="14">
-        <f>COUNTIF(H5:H62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="14">
-        <f>COUNTIF(I5:I62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="14">
-        <f>COUNTIF(J5:J62,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="14" t="s">
+      <c r="B100" s="14">
+        <f>COUNTIF(B5:B99,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="16">
+        <f t="shared" ref="C100:J100" si="2">COUNTIF(C5:C99,"&gt;=0.1")</f>
+        <v>0</v>
+      </c>
+      <c r="D100" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H100" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I100" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="14" t="e">
-        <f>B63/COUNT(B5:B62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C64" s="14" t="e">
-        <f>C63/COUNT(C5:C62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D64" s="14" t="e">
-        <f>D63/COUNT(D5:D62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E64" s="14" t="e">
-        <f>E63/COUNT(E5:E62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="14" t="e">
-        <f>F63/COUNT(F5:F62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="14" t="e">
-        <f>G63/COUNT(G5:G62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H64" s="14" t="e">
-        <f>H63/COUNT(H5:H62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="14" t="e">
-        <f>I63/COUNT(I5:I62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J64" s="14" t="e">
-        <f>J63/COUNT(J5:J62)</f>
-        <v>#DIV/0!</v>
+      <c r="B101" s="14">
+        <f>B100/COUNT(B5:B99)</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="16">
+        <f t="shared" ref="C101:J101" si="3">C100/COUNT(C5:C99)</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="16">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="16">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H101" s="16">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I101" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8215,14 +9115,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -8231,20 +9131,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8282,7 +9182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
@@ -8314,7 +9214,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -8353,7 +9253,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -8385,14 +9285,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="15">
-        <f t="shared" ref="K5:K61" si="0">COUNTIF(B5:J5,"&gt;=0.05")</f>
+        <f t="shared" ref="K5:K68" si="0">COUNTIF(B5:J5,"&gt;=0.05")</f>
         <v>0</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -8431,7 +9331,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -8470,7 +9370,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -8509,7 +9409,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -8548,7 +9448,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -8587,7 +9487,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -8626,7 +9526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
@@ -8665,7 +9565,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -8704,7 +9604,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -8743,7 +9643,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -8782,7 +9682,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -8821,7 +9721,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -8860,7 +9760,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -8899,7 +9799,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -8938,7 +9838,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -8977,7 +9877,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -9016,7 +9916,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -9055,46 +9955,46 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="14">
-        <v>1</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14">
-        <v>1</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1</v>
-      </c>
-      <c r="J23" s="14">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -9133,7 +10033,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -9172,85 +10072,85 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="15">
-        <v>1</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1</v>
-      </c>
-      <c r="J26" s="15">
-        <v>1</v>
-      </c>
-      <c r="K26" s="15">
+      <c r="B26" s="20">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1</v>
+      </c>
+      <c r="K26" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="14">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="B27" s="22">
+        <v>0</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+      <c r="E27" s="22">
         <v>0.03</v>
       </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
         <v>0.03</v>
       </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="12" t="s">
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -9289,7 +10189,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -9328,7 +10228,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -9367,7 +10267,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -9406,7 +10306,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -9445,7 +10345,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -9484,7 +10384,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -9523,7 +10423,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -9562,7 +10462,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -9601,7 +10501,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -9640,7 +10540,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="17" customFormat="1">
+    <row r="38" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>54</v>
       </c>
@@ -9679,316 +10579,2504 @@
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
+      <c r="B39" s="14">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I39" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0</v>
+      </c>
       <c r="K39" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
       <c r="K40" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="B41" s="14">
+        <v>0</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14">
+        <v>0</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0</v>
+      </c>
       <c r="K41" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
       <c r="K42" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="12"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="M42" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="H43" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <v>0</v>
+      </c>
       <c r="K43" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="12"/>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
+      <c r="B44" s="14">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
       <c r="K44" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="12"/>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
+      <c r="B45" s="14">
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <v>0.03</v>
+      </c>
       <c r="K45" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="B46" s="14">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0</v>
+      </c>
       <c r="K46" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="B47" s="14">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="I47" s="14">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <v>0</v>
+      </c>
       <c r="K47" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="B48" s="14">
+        <v>0</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
+        <v>0</v>
+      </c>
       <c r="K48" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="B49" s="14">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <v>0</v>
+      </c>
       <c r="K49" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="M49" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="B50" s="14">
+        <v>0</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <v>0</v>
+      </c>
       <c r="K50" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M50" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
+      <c r="B51" s="14">
+        <v>0</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I51" s="14">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <v>0</v>
+      </c>
       <c r="K51" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="M51" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="B52" s="16">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
       <c r="K52" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
+      <c r="B53" s="16">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
       <c r="K53" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="M53" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
+      <c r="B54" s="16">
+        <v>0</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="G54" s="16">
+        <v>0</v>
+      </c>
+      <c r="H54" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0</v>
+      </c>
       <c r="K54" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="M54" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
+      <c r="B55" s="16">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+      <c r="H55" s="16">
+        <v>0</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
       <c r="K55" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M55" s="12"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="M55" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
+      <c r="B56" s="14">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56" s="14">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0</v>
+      </c>
       <c r="K56" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="12"/>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
+      <c r="B57" s="14">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14">
+        <v>0</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
       <c r="K57" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="12"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K58" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="12"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
+      <c r="B59" s="14">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0.03</v>
+      </c>
       <c r="K59" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="12"/>
-    </row>
-    <row r="60" spans="1:13">
+        <v>4</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
+      <c r="B60" s="14">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="H60" s="14">
+        <v>1</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0</v>
+      </c>
       <c r="K60" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="12"/>
-    </row>
-    <row r="61" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K61" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="12"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="14" t="s">
-        <v>112</v>
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="I61" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K61" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="14">
+        <v>0</v>
+      </c>
+      <c r="C62" s="14">
+        <v>0</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0</v>
+      </c>
+      <c r="H62" s="14">
+        <v>1</v>
+      </c>
+      <c r="I62" s="14">
+        <v>1</v>
+      </c>
+      <c r="J62" s="14">
+        <v>1</v>
+      </c>
+      <c r="K62" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="B63" s="14">
-        <f>COUNTIF(B4:B62,"&gt;=0.05")</f>
-        <v>4</v>
-      </c>
-      <c r="C63" s="15">
-        <f t="shared" ref="C63:J63" si="1">COUNTIF(C4:C62,"&gt;=0.05")</f>
-        <v>4</v>
-      </c>
-      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="I63" s="14">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
+        <v>0</v>
+      </c>
+      <c r="K63" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="14">
+        <v>0</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0</v>
+      </c>
+      <c r="E65" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K65" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="14">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <v>0</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0</v>
+      </c>
+      <c r="H66" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="I66" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0</v>
+      </c>
+      <c r="K66" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="14">
+        <v>0</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I67" s="14">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0</v>
+      </c>
+      <c r="K67" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="14">
+        <v>0</v>
+      </c>
+      <c r="C68" s="14">
+        <v>0</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="I68" s="14">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="14">
+        <v>0</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>0</v>
+      </c>
+      <c r="I69" s="14">
+        <v>0</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="16">
+        <f t="shared" ref="K69:K100" si="1">COUNTIF(B69:J69,"&gt;=0.05")</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="14">
+        <v>0</v>
+      </c>
+      <c r="C70" s="14">
+        <v>0</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+      <c r="G70" s="14">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I70" s="14">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K70" s="16">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E63" s="15">
+        <v>2</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="14">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0</v>
+      </c>
+      <c r="K71" s="16">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F63" s="15">
+        <v>0</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="14">
+        <v>0</v>
+      </c>
+      <c r="C72" s="14">
+        <v>0</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0</v>
+      </c>
+      <c r="H72" s="14">
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K72" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="14">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="14">
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I73" s="14">
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" s="14">
+        <v>0</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+      <c r="G74" s="14">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="I74" s="14">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K74" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B75" s="14">
+        <v>0</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K75" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B76" s="14">
+        <v>0</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E76" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0</v>
+      </c>
+      <c r="G76" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H76" s="14">
+        <v>1</v>
+      </c>
+      <c r="I76" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="J76" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77" s="14">
+        <v>0</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+      <c r="G77" s="14">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I77" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="J77" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K77" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" s="14">
+        <v>0</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="14">
+        <v>1</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+      <c r="G78" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H78" s="14">
+        <v>1</v>
+      </c>
+      <c r="I78" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G63" s="15">
+      <c r="M78" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="20">
+        <v>1</v>
+      </c>
+      <c r="C79" s="20">
+        <v>1</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0</v>
+      </c>
+      <c r="E79" s="20">
+        <v>0</v>
+      </c>
+      <c r="F79" s="20">
+        <v>1</v>
+      </c>
+      <c r="G79" s="20">
+        <v>0</v>
+      </c>
+      <c r="H79" s="20">
+        <v>0</v>
+      </c>
+      <c r="I79" s="20">
+        <v>1</v>
+      </c>
+      <c r="J79" s="20">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H63" s="15">
+        <v>5</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" s="14">
+        <v>0</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+      <c r="G80" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H80" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="I80" s="14">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="K80" s="16">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I63" s="15">
+        <v>2</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" s="14">
+        <v>0</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+      <c r="G81" s="14">
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I81" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="K81" s="16">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="14">
+        <v>0</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+      <c r="G82" s="14">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>0</v>
+      </c>
+      <c r="I82" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="14">
+        <v>0</v>
+      </c>
+      <c r="C83" s="14">
+        <v>0</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0</v>
+      </c>
+      <c r="G83" s="14">
+        <v>0</v>
+      </c>
+      <c r="H83" s="14">
+        <v>1</v>
+      </c>
+      <c r="I83" s="14">
+        <v>0</v>
+      </c>
+      <c r="J83" s="14">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="14">
+        <v>0</v>
+      </c>
+      <c r="C84" s="14">
+        <v>0</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="E84" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H84" s="14">
+        <v>1</v>
+      </c>
+      <c r="I84" s="14">
+        <v>1</v>
+      </c>
+      <c r="J84" s="14">
+        <v>1</v>
+      </c>
+      <c r="K84" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" s="14">
+        <v>0</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0</v>
+      </c>
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K85" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M86" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B87" s="14">
+        <v>0</v>
+      </c>
+      <c r="C87" s="14">
+        <v>0</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F87" s="14">
+        <v>0</v>
+      </c>
+      <c r="G87" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H87" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I87" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K87" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B88" s="14">
+        <v>0</v>
+      </c>
+      <c r="C88" s="14">
+        <v>0</v>
+      </c>
+      <c r="D88" s="14">
+        <v>0</v>
+      </c>
+      <c r="E88" s="14">
+        <v>0</v>
+      </c>
+      <c r="F88" s="14">
+        <v>0</v>
+      </c>
+      <c r="G88" s="14">
+        <v>0</v>
+      </c>
+      <c r="H88" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="I88" s="14">
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" s="14">
+        <v>0</v>
+      </c>
+      <c r="C89" s="14">
+        <v>0</v>
+      </c>
+      <c r="D89" s="14">
+        <v>0</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0</v>
+      </c>
+      <c r="F89" s="14">
+        <v>0</v>
+      </c>
+      <c r="G89" s="14">
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="B90" s="14">
+        <v>0</v>
+      </c>
+      <c r="C90" s="14">
+        <v>0</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
+      <c r="F90" s="14">
+        <v>0</v>
+      </c>
+      <c r="G90" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="H90" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I90" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="J90" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="K90" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" s="14">
+        <v>0</v>
+      </c>
+      <c r="C91" s="14">
+        <v>0</v>
+      </c>
+      <c r="D91" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="F91" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G91" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="H91" s="14">
+        <v>1</v>
+      </c>
+      <c r="I91" s="14">
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="K91" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B92" s="14">
+        <v>0</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0</v>
+      </c>
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="14">
+        <v>0</v>
+      </c>
+      <c r="F92" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G92" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H92" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I92" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="J92" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="K92" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="14">
+        <v>0</v>
+      </c>
+      <c r="C93" s="14">
+        <v>0</v>
+      </c>
+      <c r="D93" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E93" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="F93" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G93" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="H93" s="14">
+        <v>1</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="K93" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="14">
+        <v>0</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14">
+        <v>0</v>
+      </c>
+      <c r="E94" s="14">
+        <v>0</v>
+      </c>
+      <c r="F94" s="14">
+        <v>0</v>
+      </c>
+      <c r="G94" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H94" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I94" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="J94" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="K94" s="16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="B95" s="14">
+        <v>0</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0</v>
+      </c>
+      <c r="D95" s="14">
+        <v>0</v>
+      </c>
+      <c r="E95" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="F95" s="14">
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>1</v>
+      </c>
+      <c r="I95" s="14">
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="K95" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B96" s="14">
+        <v>0</v>
+      </c>
+      <c r="C96" s="14">
+        <v>0</v>
+      </c>
+      <c r="D96" s="14">
+        <v>0</v>
+      </c>
+      <c r="E96" s="14">
+        <v>0</v>
+      </c>
+      <c r="F96" s="14">
+        <v>0</v>
+      </c>
+      <c r="G96" s="14">
+        <v>0</v>
+      </c>
+      <c r="H96" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I96" s="14">
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="14">
+        <v>0</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E97" s="14">
+        <v>0</v>
+      </c>
+      <c r="F97" s="14">
+        <v>0</v>
+      </c>
+      <c r="G97" s="14">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <v>1</v>
+      </c>
+      <c r="I97" s="14">
+        <v>0</v>
+      </c>
+      <c r="J97" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K97" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="14">
+        <v>0</v>
+      </c>
+      <c r="C98" s="14">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14">
+        <v>1</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="F98" s="14">
+        <v>0</v>
+      </c>
+      <c r="G98" s="14">
+        <v>0</v>
+      </c>
+      <c r="H98" s="14">
+        <v>1</v>
+      </c>
+      <c r="I98" s="14">
+        <v>0</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K98" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="14">
+        <v>0</v>
+      </c>
+      <c r="C99" s="14">
+        <v>0</v>
+      </c>
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="14">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="H99" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="I99" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="J99" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="K99" s="16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="14">
+        <v>0</v>
+      </c>
+      <c r="C100" s="14">
+        <v>0</v>
+      </c>
+      <c r="D100" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="E100" s="14">
+        <v>0</v>
+      </c>
+      <c r="F100" s="14">
+        <v>0</v>
+      </c>
+      <c r="G100" s="14">
+        <v>0</v>
+      </c>
+      <c r="H100" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="I100" s="14">
+        <v>0</v>
+      </c>
+      <c r="J100" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="K100" s="16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M100" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="14">
+        <f>COUNTIF(B4:B100,"&gt;=0.05")</f>
+        <v>7</v>
+      </c>
+      <c r="C102" s="16">
+        <f t="shared" ref="C102:J102" si="2">COUNTIF(C4:C100,"&gt;=0.05")</f>
+        <v>7</v>
+      </c>
+      <c r="D102" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E102" s="16">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J63" s="15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="14" t="s">
+      <c r="G102" s="16">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H102" s="16">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="I102" s="16">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="J102" s="16">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="14">
-        <f>B63/COUNT(B4:B62)</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="C64" s="14">
-        <f>C63/COUNT(C4:C62)</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="D64" s="14">
-        <f>D63/COUNT(D4:D62)</f>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="E64" s="14">
-        <f>E63/COUNT(E4:E62)</f>
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="F64" s="14">
-        <f>F63/COUNT(F4:F62)</f>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G64" s="14">
-        <f>G63/COUNT(G4:G62)</f>
-        <v>0.25714285714285712</v>
-      </c>
-      <c r="H64" s="14">
-        <f>H63/COUNT(H4:H62)</f>
-        <v>0.48571428571428571</v>
-      </c>
-      <c r="I64" s="14">
-        <f>I63/COUNT(I4:I62)</f>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="J64" s="14">
-        <f>J63/COUNT(J4:J62)</f>
-        <v>0.2</v>
+      <c r="B103" s="14">
+        <f>B102/COUNT(B4:B100)</f>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="C103" s="16">
+        <f t="shared" ref="C103:J103" si="3">C102/COUNT(C4:C100)</f>
+        <v>7.2164948453608241E-2</v>
+      </c>
+      <c r="D103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="E103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.39175257731958762</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="3"/>
+        <v>8.247422680412371E-2</v>
+      </c>
+      <c r="G103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21649484536082475</v>
+      </c>
+      <c r="H103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.53608247422680411</v>
+      </c>
+      <c r="I103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22680412371134021</v>
+      </c>
+      <c r="J103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23711340206185566</v>
       </c>
     </row>
   </sheetData>
@@ -10001,14 +13089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -10017,20 +13105,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10068,7 +13156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
@@ -10082,7 +13170,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -10092,7 +13180,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -10102,7 +13190,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -10112,7 +13200,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -10122,7 +13210,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -10132,7 +13220,7 @@
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -10142,7 +13230,7 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -10152,7 +13240,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -10162,7 +13250,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
@@ -10172,7 +13260,7 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -10182,7 +13270,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -10192,7 +13280,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -10202,7 +13290,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -10212,7 +13300,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -10222,7 +13310,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -10232,7 +13320,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -10242,7 +13330,7 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -10252,7 +13340,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -10262,7 +13350,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -10272,7 +13360,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -10282,7 +13370,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -10292,7 +13380,7 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -10302,7 +13390,7 @@
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -10312,7 +13400,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
@@ -10322,7 +13410,7 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -10332,7 +13420,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -10342,7 +13430,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -10352,7 +13440,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -10362,7 +13450,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -10372,7 +13460,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -10382,7 +13470,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -10392,7 +13480,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -10402,7 +13490,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -10412,7 +13500,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -10422,7 +13510,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
@@ -10432,7 +13520,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
@@ -10442,7 +13530,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -10452,7 +13540,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -10462,7 +13550,7 @@
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
@@ -10472,7 +13560,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
@@ -10482,7 +13570,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -10492,7 +13580,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -10502,7 +13590,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
@@ -10512,7 +13600,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
@@ -10522,7 +13610,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
@@ -10532,7 +13620,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -10542,7 +13630,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
@@ -10552,7 +13640,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
@@ -10562,7 +13650,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -10572,7 +13660,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
@@ -10582,7 +13670,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
@@ -10592,7 +13680,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -10602,7 +13690,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -10612,7 +13700,7 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
@@ -10622,7 +13710,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
@@ -10632,7 +13720,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
@@ -10642,7 +13730,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
@@ -10652,7 +13740,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
@@ -10662,7 +13750,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
@@ -10703,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>
@@ -10754,14 +13842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="9" style="14"/>
     <col min="11" max="11" width="16.625" style="14" customWidth="1"/>
@@ -10770,20 +13858,20 @@
     <col min="14" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10821,7 +13909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>241</v>
       </c>
@@ -10835,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -10845,7 +13933,7 @@
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>238</v>
       </c>
@@ -10855,7 +13943,7 @@
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -10865,7 +13953,7 @@
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -10875,7 +13963,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
@@ -10885,7 +13973,7 @@
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -10895,7 +13983,7 @@
       </c>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -10905,7 +13993,7 @@
       </c>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -10915,7 +14003,7 @@
       </c>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>162</v>
       </c>
@@ -10925,7 +14013,7 @@
       </c>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>163</v>
       </c>
@@ -10935,7 +14023,7 @@
       </c>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -10945,7 +14033,7 @@
       </c>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -10955,7 +14043,7 @@
       </c>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
@@ -10965,7 +14053,7 @@
       </c>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
@@ -10975,7 +14063,7 @@
       </c>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
@@ -10985,7 +14073,7 @@
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
@@ -10995,7 +14083,7 @@
       </c>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
@@ -11005,7 +14093,7 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
@@ -11015,7 +14103,7 @@
       </c>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -11025,7 +14113,7 @@
       </c>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
@@ -11035,7 +14123,7 @@
       </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
@@ -11045,7 +14133,7 @@
       </c>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
@@ -11055,7 +14143,7 @@
       </c>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
@@ -11065,7 +14153,7 @@
       </c>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
@@ -11075,7 +14163,7 @@
       </c>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
@@ -11085,7 +14173,7 @@
       </c>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
@@ -11095,7 +14183,7 @@
       </c>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
@@ -11105,7 +14193,7 @@
       </c>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
@@ -11115,7 +14203,7 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
@@ -11125,7 +14213,7 @@
       </c>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -11135,7 +14223,7 @@
       </c>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
@@ -11145,7 +14233,7 @@
       </c>
       <c r="M34" s="12"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
@@ -11155,7 +14243,7 @@
       </c>
       <c r="M35" s="12"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
@@ -11165,7 +14253,7 @@
       </c>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
@@ -11175,7 +14263,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
@@ -11185,7 +14273,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
@@ -11195,7 +14283,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
@@ -11205,7 +14293,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
@@ -11215,7 +14303,7 @@
       </c>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
@@ -11225,7 +14313,7 @@
       </c>
       <c r="M42" s="12"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
@@ -11235,7 +14323,7 @@
       </c>
       <c r="M43" s="12"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
@@ -11245,7 +14333,7 @@
       </c>
       <c r="M44" s="12"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
@@ -11255,7 +14343,7 @@
       </c>
       <c r="M45" s="12"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
@@ -11265,7 +14353,7 @@
       </c>
       <c r="M46" s="12"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
@@ -11275,7 +14363,7 @@
       </c>
       <c r="M47" s="12"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
@@ -11285,7 +14373,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
@@ -11295,7 +14383,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
@@ -11305,7 +14393,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
@@ -11315,7 +14403,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -11325,7 +14413,7 @@
       </c>
       <c r="M52" s="12"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
@@ -11335,7 +14423,7 @@
       </c>
       <c r="M53" s="12"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
@@ -11345,7 +14433,7 @@
       </c>
       <c r="M54" s="12"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
@@ -11355,7 +14443,7 @@
       </c>
       <c r="M55" s="12"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
@@ -11365,7 +14453,7 @@
       </c>
       <c r="M56" s="12"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
@@ -11375,7 +14463,7 @@
       </c>
       <c r="M57" s="12"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
@@ -11385,7 +14473,7 @@
       </c>
       <c r="M58" s="12"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
@@ -11395,7 +14483,7 @@
       </c>
       <c r="M59" s="12"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
@@ -11405,7 +14493,7 @@
       </c>
       <c r="M60" s="12"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
@@ -11415,7 +14503,7 @@
       </c>
       <c r="M61" s="12"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>112</v>
       </c>
@@ -11456,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11DB53B-47F6-496A-B3BF-B02D18178CD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD0A97-0916-418B-BA26-D7FD298D4521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="396">
   <si>
     <t>MR1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1190,6 +1190,84 @@
   <si>
     <t>gt = (x0-xp) * l</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG98</t>
+  </si>
+  <si>
+    <t>BUG99</t>
+  </si>
+  <si>
+    <t>BUG100</t>
+  </si>
+  <si>
+    <t>BUG101</t>
+  </si>
+  <si>
+    <t>BUG102</t>
+  </si>
+  <si>
+    <t>BUG103</t>
+  </si>
+  <si>
+    <t>BUG104</t>
+  </si>
+  <si>
+    <t>BUG105</t>
+  </si>
+  <si>
+    <t>BUG106</t>
+  </si>
+  <si>
+    <t>BUG107</t>
+  </si>
+  <si>
+    <t>BUG108</t>
+  </si>
+  <si>
+    <t>BUG109</t>
+  </si>
+  <si>
+    <t>BUG110</t>
+  </si>
+  <si>
+    <t>BUG111</t>
+  </si>
+  <si>
+    <t>BUG112</t>
+  </si>
+  <si>
+    <t>BUG113</t>
+  </si>
+  <si>
+    <t>BUG114</t>
+  </si>
+  <si>
+    <t>BUG115</t>
+  </si>
+  <si>
+    <t>BUG116</t>
+  </si>
+  <si>
+    <t>BUG117</t>
+  </si>
+  <si>
+    <t>BUG118</t>
+  </si>
+  <si>
+    <t>BUG119</t>
+  </si>
+  <si>
+    <t>BUG120</t>
+  </si>
+  <si>
+    <t>BUG121</t>
+  </si>
+  <si>
+    <t>BUG122</t>
+  </si>
+  <si>
+    <t>BUG123</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,6 +1440,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,21 +1745,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -4844,20 +4928,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
@@ -7745,10 +7829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7761,17 +7845,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -7875,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f>COUNTIF(APG_L2!B4:J4,"&gt;=0.1")</f>
+        <f>COUNTIF(B4:J4,"&gt;=0.05")</f>
         <v>1</v>
       </c>
       <c r="M4" s="12"/>
@@ -7911,8 +7995,8 @@
       <c r="J5" s="14">
         <v>0.03</v>
       </c>
-      <c r="K5" s="14">
-        <f t="shared" ref="K5:K68" si="0">COUNTIF(B5:J5,"&gt;=0.1")</f>
+      <c r="K5" s="24">
+        <f t="shared" ref="K5:K68" si="0">COUNTIF(B5:J5,"&gt;=0.05")</f>
         <v>0</v>
       </c>
       <c r="M5" s="12"/>
@@ -7948,7 +8032,7 @@
       <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -7985,7 +8069,8 @@
       <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="12"/>
@@ -8021,7 +8106,7 @@
       <c r="J8" s="14">
         <v>0.03</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8058,7 +8143,7 @@
       <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8095,7 +8180,7 @@
       <c r="J10" s="14">
         <v>0</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8132,9 +8217,9 @@
       <c r="J11" s="14">
         <v>0</v>
       </c>
-      <c r="K11" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="K11" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="M11" s="12"/>
     </row>
@@ -8169,7 +8254,7 @@
       <c r="J12" s="14">
         <v>0.03</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -8206,7 +8291,7 @@
       <c r="J13" s="14">
         <v>0</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -8216,9 +8301,36 @@
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M14" s="12"/>
     </row>
@@ -8226,9 +8338,36 @@
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M15" s="12"/>
     </row>
@@ -8236,9 +8375,36 @@
       <c r="A16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M16" s="12"/>
     </row>
@@ -8246,9 +8412,36 @@
       <c r="A17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M17" s="12"/>
     </row>
@@ -8256,9 +8449,36 @@
       <c r="A18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M18" s="12"/>
     </row>
@@ -8266,9 +8486,36 @@
       <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B19" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="M19" s="12"/>
     </row>
@@ -8276,9 +8523,36 @@
       <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M20" s="12"/>
     </row>
@@ -8286,9 +8560,36 @@
       <c r="A21" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="M21" s="12"/>
     </row>
@@ -8296,9 +8597,36 @@
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M22" s="12"/>
     </row>
@@ -8306,9 +8634,36 @@
       <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B23" s="19">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="F23" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="K23" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="M23" s="12"/>
     </row>
@@ -8316,9 +8671,36 @@
       <c r="A24" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M24" s="12"/>
     </row>
@@ -8326,9 +8708,36 @@
       <c r="A25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B25" s="14">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="M25" s="12"/>
     </row>
@@ -8336,9 +8745,36 @@
       <c r="A26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
+        <v>1</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="M26" s="12"/>
     </row>
@@ -8346,9 +8782,36 @@
       <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B27" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1</v>
+      </c>
+      <c r="J27" s="14">
+        <v>1</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="M27" s="12"/>
     </row>
@@ -8356,7 +8819,34 @@
       <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="14">
+      <c r="B28" s="14">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14">
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K28" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8366,9 +8856,36 @@
       <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B29" s="14">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M29" s="12"/>
     </row>
@@ -8376,9 +8893,36 @@
       <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B30" s="14">
+        <v>0</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="M30" s="12"/>
     </row>
@@ -8386,7 +8930,34 @@
       <c r="A31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="14">
+      <c r="B31" s="14">
+        <v>0</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J31" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K31" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8396,9 +8967,36 @@
       <c r="A32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B32" s="14">
+        <v>0</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M32" s="12"/>
     </row>
@@ -8406,9 +9004,36 @@
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B33" s="14">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14">
+        <v>0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J33" s="14">
+        <v>0</v>
+      </c>
+      <c r="K33" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M33" s="12"/>
     </row>
@@ -8416,9 +9041,36 @@
       <c r="A34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B34" s="14">
+        <v>0</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="F34" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M34" s="12"/>
     </row>
@@ -8426,9 +9078,36 @@
       <c r="A35" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B35" s="14">
+        <v>0</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M35" s="12"/>
     </row>
@@ -8436,9 +9115,36 @@
       <c r="A36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K36" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B36" s="14">
+        <v>0</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J36" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K36" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M36" s="12"/>
     </row>
@@ -8446,7 +9152,34 @@
       <c r="A37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="14">
+      <c r="B37" s="14">
+        <v>0</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14">
+        <v>0</v>
+      </c>
+      <c r="J37" s="14">
+        <v>0</v>
+      </c>
+      <c r="K37" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8456,7 +9189,34 @@
       <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="14">
+      <c r="B38" s="14">
+        <v>0</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8466,7 +9226,34 @@
       <c r="A39" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K39" s="14">
+      <c r="B39" s="14">
+        <v>0</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0</v>
+      </c>
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K39" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8476,7 +9263,34 @@
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="K40" s="14">
+      <c r="B40" s="14">
+        <v>0</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8486,7 +9300,34 @@
       <c r="A41" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="14">
+      <c r="B41" s="19">
+        <v>0</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8496,7 +9337,34 @@
       <c r="A42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="K42" s="14">
+      <c r="B42" s="19">
+        <v>0</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8506,7 +9374,34 @@
       <c r="A43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K43" s="14">
+      <c r="B43" s="19">
+        <v>0</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0</v>
+      </c>
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="19">
+        <v>0</v>
+      </c>
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
+      <c r="K43" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8516,9 +9411,36 @@
       <c r="A44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K44" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B44" s="14">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M44" s="12"/>
     </row>
@@ -8526,9 +9448,36 @@
       <c r="A45" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B45" s="14">
+        <v>0</v>
+      </c>
+      <c r="C45" s="14">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <v>0</v>
+      </c>
+      <c r="K45" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M45" s="12"/>
     </row>
@@ -8536,9 +9485,36 @@
       <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K46" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B46" s="14">
+        <v>0</v>
+      </c>
+      <c r="C46" s="14">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <v>0</v>
+      </c>
+      <c r="K46" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M46" s="12"/>
     </row>
@@ -8546,9 +9522,36 @@
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="K47" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B47" s="14">
+        <v>0</v>
+      </c>
+      <c r="C47" s="14">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="14">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <v>0</v>
+      </c>
+      <c r="K47" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M47" s="12"/>
     </row>
@@ -8556,9 +9559,36 @@
       <c r="A48" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K48" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B48" s="14">
+        <v>0</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H48" s="14">
+        <v>0</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J48" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K48" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M48" s="12"/>
     </row>
@@ -8566,9 +9596,36 @@
       <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K49" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B49" s="14">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <v>0</v>
+      </c>
+      <c r="K49" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M49" s="12"/>
     </row>
@@ -8576,9 +9633,36 @@
       <c r="A50" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B50" s="14">
+        <v>0</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <v>0</v>
+      </c>
+      <c r="K50" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M50" s="12"/>
     </row>
@@ -8586,9 +9670,36 @@
       <c r="A51" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K51" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B51" s="14">
+        <v>0</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <v>0</v>
+      </c>
+      <c r="K51" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M51" s="12"/>
     </row>
@@ -8596,9 +9707,36 @@
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B52" s="14">
+        <v>0</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <v>0</v>
+      </c>
+      <c r="I52" s="14">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
+        <v>0</v>
+      </c>
+      <c r="K52" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M52" s="12"/>
     </row>
@@ -8606,9 +9744,36 @@
       <c r="A53" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="K53" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B53" s="14">
+        <v>0</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0</v>
+      </c>
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M53" s="12"/>
     </row>
@@ -8616,9 +9781,36 @@
       <c r="A54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="K54" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B54" s="14">
+        <v>0</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>0</v>
+      </c>
+      <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <v>0</v>
+      </c>
+      <c r="K54" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M54" s="12"/>
     </row>
@@ -8626,7 +9818,34 @@
       <c r="A55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="K55" s="14">
+      <c r="B55" s="14">
+        <v>0</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0</v>
+      </c>
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>0</v>
+      </c>
+      <c r="I55" s="14">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
+        <v>0</v>
+      </c>
+      <c r="K55" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8636,9 +9855,36 @@
       <c r="A56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="K56" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B56" s="14">
+        <v>0</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>0</v>
+      </c>
+      <c r="I56" s="14">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0</v>
+      </c>
+      <c r="K56" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M56" s="12"/>
     </row>
@@ -8646,9 +9892,36 @@
       <c r="A57" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K57" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B57" s="14">
+        <v>0</v>
+      </c>
+      <c r="C57" s="14">
+        <v>0</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0</v>
+      </c>
+      <c r="K57" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M57" s="12"/>
     </row>
@@ -8656,9 +9929,36 @@
       <c r="A58" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K58" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B58" s="14">
+        <v>0</v>
+      </c>
+      <c r="C58" s="14">
+        <v>0</v>
+      </c>
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>0</v>
+      </c>
+      <c r="I58" s="14">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <v>0</v>
+      </c>
+      <c r="K58" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M58" s="12"/>
     </row>
@@ -8666,9 +9966,36 @@
       <c r="A59" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K59" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B59" s="14">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14">
+        <v>0</v>
+      </c>
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K59" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="M59" s="12"/>
     </row>
@@ -8676,7 +10003,34 @@
       <c r="A60" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="K60" s="14">
+      <c r="B60" s="14">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14">
+        <v>0</v>
+      </c>
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K60" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8686,7 +10040,34 @@
       <c r="A61" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K61" s="14">
+      <c r="B61" s="14">
+        <v>0</v>
+      </c>
+      <c r="C61" s="14">
+        <v>0</v>
+      </c>
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K61" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8696,9 +10077,36 @@
       <c r="A62" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K62" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B62" s="14">
+        <v>0</v>
+      </c>
+      <c r="C62" s="14">
+        <v>0</v>
+      </c>
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0</v>
+      </c>
+      <c r="H62" s="14">
+        <v>0</v>
+      </c>
+      <c r="I62" s="14">
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K62" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M62" s="12"/>
     </row>
@@ -8706,9 +10114,36 @@
       <c r="A63" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="K63" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B63" s="14">
+        <v>0</v>
+      </c>
+      <c r="C63" s="14">
+        <v>0</v>
+      </c>
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>0</v>
+      </c>
+      <c r="I63" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J63" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K63" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="M63" s="12"/>
     </row>
@@ -8716,7 +10151,34 @@
       <c r="A64" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K64" s="16">
+      <c r="B64" s="14">
+        <v>0</v>
+      </c>
+      <c r="C64" s="14">
+        <v>0</v>
+      </c>
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0</v>
+      </c>
+      <c r="K64" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8726,7 +10188,34 @@
       <c r="A65" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K65" s="16">
+      <c r="B65" s="14">
+        <v>0</v>
+      </c>
+      <c r="C65" s="14">
+        <v>0</v>
+      </c>
+      <c r="D65" s="14">
+        <v>0</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
+        <v>0</v>
+      </c>
+      <c r="K65" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8736,9 +10225,36 @@
       <c r="A66" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="K66" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B66" s="14">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14">
+        <v>0</v>
+      </c>
+      <c r="D66" s="14">
+        <v>0</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H66" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="I66" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="J66" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="K66" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="M66" s="12"/>
     </row>
@@ -8746,9 +10262,36 @@
       <c r="A67" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="K67" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B67" s="14">
+        <v>0</v>
+      </c>
+      <c r="C67" s="14">
+        <v>0</v>
+      </c>
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="F67" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H67" s="14">
+        <v>1</v>
+      </c>
+      <c r="I67" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="J67" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="K67" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="M67" s="12"/>
     </row>
@@ -8756,7 +10299,34 @@
       <c r="A68" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K68" s="16">
+      <c r="B68" s="14">
+        <v>0</v>
+      </c>
+      <c r="C68" s="14">
+        <v>0</v>
+      </c>
+      <c r="D68" s="14">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0</v>
+      </c>
+      <c r="G68" s="14">
+        <v>0</v>
+      </c>
+      <c r="H68" s="14">
+        <v>0</v>
+      </c>
+      <c r="I68" s="14">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8766,8 +10336,35 @@
       <c r="A69" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K69" s="16">
-        <f t="shared" ref="K69:K94" si="1">COUNTIF(B69:J69,"&gt;=0.1")</f>
+      <c r="B69" s="14">
+        <v>0</v>
+      </c>
+      <c r="C69" s="14">
+        <v>0</v>
+      </c>
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0</v>
+      </c>
+      <c r="G69" s="14">
+        <v>0</v>
+      </c>
+      <c r="H69" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I69" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0</v>
+      </c>
+      <c r="K69" s="24">
+        <f t="shared" ref="K69:K126" si="1">COUNTIF(B69:J69,"&gt;=0.05")</f>
         <v>0</v>
       </c>
       <c r="M69" s="12"/>
@@ -8776,9 +10373,36 @@
       <c r="A70" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K70" s="16">
+      <c r="B70" s="14">
+        <v>0</v>
+      </c>
+      <c r="C70" s="14">
+        <v>0</v>
+      </c>
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+      <c r="G70" s="14">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>0</v>
+      </c>
+      <c r="I70" s="14">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
+        <v>0</v>
+      </c>
+      <c r="K70" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="12"/>
     </row>
@@ -8786,9 +10410,36 @@
       <c r="A71" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="K71" s="16">
+      <c r="B71" s="14">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14">
+        <v>0</v>
+      </c>
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F71" s="14">
+        <v>0</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0</v>
+      </c>
+      <c r="K71" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" s="12"/>
     </row>
@@ -8796,7 +10447,34 @@
       <c r="A72" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="K72" s="16">
+      <c r="B72" s="14">
+        <v>0</v>
+      </c>
+      <c r="C72" s="14">
+        <v>0</v>
+      </c>
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0</v>
+      </c>
+      <c r="H72" s="14">
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8806,7 +10484,34 @@
       <c r="A73" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="K73" s="16">
+      <c r="B73" s="14">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14">
+        <v>0</v>
+      </c>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0</v>
+      </c>
+      <c r="G73" s="14">
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
+        <v>0</v>
+      </c>
+      <c r="I73" s="14">
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8816,7 +10521,34 @@
       <c r="A74" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="K74" s="16">
+      <c r="B74" s="14">
+        <v>0</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0</v>
+      </c>
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0</v>
+      </c>
+      <c r="G74" s="14">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I74" s="14">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0</v>
+      </c>
+      <c r="K74" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8826,9 +10558,36 @@
       <c r="A75" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="K75" s="16">
+      <c r="B75" s="14">
+        <v>0</v>
+      </c>
+      <c r="C75" s="14">
+        <v>0</v>
+      </c>
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F75" s="14">
+        <v>0</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="K75" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="12"/>
     </row>
@@ -8836,9 +10595,36 @@
       <c r="A76" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K76" s="16">
+      <c r="B76" s="14">
+        <v>0</v>
+      </c>
+      <c r="C76" s="14">
+        <v>0</v>
+      </c>
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0</v>
+      </c>
+      <c r="G76" s="14">
+        <v>0</v>
+      </c>
+      <c r="H76" s="14">
+        <v>0</v>
+      </c>
+      <c r="I76" s="14">
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
+        <v>0</v>
+      </c>
+      <c r="K76" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="12"/>
     </row>
@@ -8846,9 +10632,36 @@
       <c r="A77" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K77" s="16">
+      <c r="B77" s="14">
+        <v>0</v>
+      </c>
+      <c r="C77" s="14">
+        <v>0</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0</v>
+      </c>
+      <c r="G77" s="14">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I77" s="14">
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="K77" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" s="12"/>
     </row>
@@ -8856,9 +10669,36 @@
       <c r="A78" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="K78" s="16">
+      <c r="B78" s="14">
+        <v>0</v>
+      </c>
+      <c r="C78" s="14">
+        <v>0</v>
+      </c>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0</v>
+      </c>
+      <c r="G78" s="14">
+        <v>0</v>
+      </c>
+      <c r="H78" s="14">
+        <v>0</v>
+      </c>
+      <c r="I78" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0</v>
+      </c>
+      <c r="K78" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" s="12"/>
     </row>
@@ -8866,9 +10706,36 @@
       <c r="A79" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="K79" s="16">
+      <c r="B79" s="14">
+        <v>0</v>
+      </c>
+      <c r="C79" s="14">
+        <v>0</v>
+      </c>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0</v>
+      </c>
+      <c r="G79" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H79" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I79" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K79" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M79" s="12"/>
     </row>
@@ -8876,7 +10743,34 @@
       <c r="A80" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="K80" s="16">
+      <c r="B80" s="14">
+        <v>0</v>
+      </c>
+      <c r="C80" s="14">
+        <v>0</v>
+      </c>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0</v>
+      </c>
+      <c r="G80" s="14">
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>0</v>
+      </c>
+      <c r="I80" s="14">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="K80" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8886,9 +10780,36 @@
       <c r="A81" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="K81" s="16">
+      <c r="B81" s="14">
+        <v>0</v>
+      </c>
+      <c r="C81" s="14">
+        <v>0</v>
+      </c>
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+      <c r="G81" s="14">
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>0</v>
+      </c>
+      <c r="I81" s="14">
+        <v>0</v>
+      </c>
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="K81" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81" s="12"/>
     </row>
@@ -8896,9 +10817,36 @@
       <c r="A82" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="K82" s="16">
+      <c r="B82" s="14">
+        <v>0</v>
+      </c>
+      <c r="C82" s="14">
+        <v>0</v>
+      </c>
+      <c r="D82" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E82" s="14">
+        <v>0</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0</v>
+      </c>
+      <c r="G82" s="14">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>1</v>
+      </c>
+      <c r="I82" s="14">
+        <v>1</v>
+      </c>
+      <c r="J82" s="14">
+        <v>1</v>
+      </c>
+      <c r="K82" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M82" s="12"/>
     </row>
@@ -8906,9 +10854,36 @@
       <c r="A83" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="K83" s="16">
+      <c r="B83" s="14">
+        <v>0</v>
+      </c>
+      <c r="C83" s="14">
+        <v>0</v>
+      </c>
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14">
+        <v>0</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0</v>
+      </c>
+      <c r="G83" s="14">
+        <v>0</v>
+      </c>
+      <c r="H83" s="14">
+        <v>0</v>
+      </c>
+      <c r="I83" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J83" s="14">
+        <v>0</v>
+      </c>
+      <c r="K83" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" s="12"/>
     </row>
@@ -8916,7 +10891,34 @@
       <c r="A84" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="K84" s="16">
+      <c r="B84" s="14">
+        <v>0</v>
+      </c>
+      <c r="C84" s="14">
+        <v>0</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="14">
+        <v>0</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0</v>
+      </c>
+      <c r="G84" s="14">
+        <v>0</v>
+      </c>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0</v>
+      </c>
+      <c r="K84" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8926,7 +10928,34 @@
       <c r="A85" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="K85" s="16">
+      <c r="B85" s="14">
+        <v>0</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0</v>
+      </c>
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="14">
+        <v>0</v>
+      </c>
+      <c r="F85" s="14">
+        <v>0</v>
+      </c>
+      <c r="G85" s="14">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8936,7 +10965,34 @@
       <c r="A86" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="K86" s="16">
+      <c r="B86" s="14">
+        <v>0</v>
+      </c>
+      <c r="C86" s="14">
+        <v>0</v>
+      </c>
+      <c r="D86" s="14">
+        <v>0</v>
+      </c>
+      <c r="E86" s="14">
+        <v>0</v>
+      </c>
+      <c r="F86" s="14">
+        <v>0</v>
+      </c>
+      <c r="G86" s="14">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
+        <v>0</v>
+      </c>
+      <c r="K86" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8946,9 +11002,36 @@
       <c r="A87" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="K87" s="16">
+      <c r="B87" s="14">
+        <v>0</v>
+      </c>
+      <c r="C87" s="14">
+        <v>0</v>
+      </c>
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F87" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G87" s="14">
+        <v>1</v>
+      </c>
+      <c r="H87" s="14">
+        <v>0</v>
+      </c>
+      <c r="I87" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="K87" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M87" s="12"/>
     </row>
@@ -8956,7 +11039,34 @@
       <c r="A88" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K88" s="16">
+      <c r="B88" s="14">
+        <v>0</v>
+      </c>
+      <c r="C88" s="14">
+        <v>0</v>
+      </c>
+      <c r="D88" s="14">
+        <v>0</v>
+      </c>
+      <c r="E88" s="14">
+        <v>0</v>
+      </c>
+      <c r="F88" s="14">
+        <v>0</v>
+      </c>
+      <c r="G88" s="14">
+        <v>0</v>
+      </c>
+      <c r="H88" s="14">
+        <v>0</v>
+      </c>
+      <c r="I88" s="14">
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
+        <v>0</v>
+      </c>
+      <c r="K88" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8966,7 +11076,34 @@
       <c r="A89" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="K89" s="16">
+      <c r="B89" s="14">
+        <v>0</v>
+      </c>
+      <c r="C89" s="14">
+        <v>0</v>
+      </c>
+      <c r="D89" s="14">
+        <v>0</v>
+      </c>
+      <c r="E89" s="14">
+        <v>0</v>
+      </c>
+      <c r="F89" s="14">
+        <v>0</v>
+      </c>
+      <c r="G89" s="14">
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8976,7 +11113,34 @@
       <c r="A90" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="K90" s="16">
+      <c r="B90" s="14">
+        <v>0</v>
+      </c>
+      <c r="C90" s="14">
+        <v>0</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
+      <c r="F90" s="14">
+        <v>0</v>
+      </c>
+      <c r="G90" s="14">
+        <v>0</v>
+      </c>
+      <c r="H90" s="14">
+        <v>0</v>
+      </c>
+      <c r="I90" s="14">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K90" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8986,7 +11150,34 @@
       <c r="A91" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="K91" s="16">
+      <c r="B91" s="14">
+        <v>0</v>
+      </c>
+      <c r="C91" s="14">
+        <v>0</v>
+      </c>
+      <c r="D91" s="14">
+        <v>0</v>
+      </c>
+      <c r="E91" s="14">
+        <v>0</v>
+      </c>
+      <c r="F91" s="14">
+        <v>0</v>
+      </c>
+      <c r="G91" s="14">
+        <v>0</v>
+      </c>
+      <c r="H91" s="14">
+        <v>0</v>
+      </c>
+      <c r="I91" s="14">
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0</v>
+      </c>
+      <c r="K91" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8996,7 +11187,34 @@
       <c r="A92" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="K92" s="16">
+      <c r="B92" s="14">
+        <v>0</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0</v>
+      </c>
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F92" s="14">
+        <v>0</v>
+      </c>
+      <c r="G92" s="14">
+        <v>0</v>
+      </c>
+      <c r="H92" s="14">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J92" s="14">
+        <v>0</v>
+      </c>
+      <c r="K92" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9006,9 +11224,36 @@
       <c r="A93" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="K93" s="16">
+      <c r="B93" s="14">
+        <v>0</v>
+      </c>
+      <c r="C93" s="14">
+        <v>0</v>
+      </c>
+      <c r="D93" s="14">
+        <v>0</v>
+      </c>
+      <c r="E93" s="14">
+        <v>0</v>
+      </c>
+      <c r="F93" s="14">
+        <v>0</v>
+      </c>
+      <c r="G93" s="14">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K93" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="12"/>
     </row>
@@ -9016,92 +11261,1271 @@
       <c r="A94" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="K94" s="16">
+      <c r="B94" s="14">
+        <v>0</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0</v>
+      </c>
+      <c r="D94" s="14">
+        <v>0</v>
+      </c>
+      <c r="E94" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="F94" s="14">
+        <v>0</v>
+      </c>
+      <c r="G94" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="H94" s="14">
+        <v>1</v>
+      </c>
+      <c r="I94" s="14">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <v>0</v>
+      </c>
+      <c r="K94" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M94" s="12"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B95" s="14">
+        <v>0</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0</v>
+      </c>
+      <c r="D95" s="14">
+        <v>0</v>
+      </c>
+      <c r="E95" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="F95" s="14">
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="H95" s="14">
+        <v>1</v>
+      </c>
+      <c r="I95" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K95" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B96" s="14">
+        <v>0</v>
+      </c>
+      <c r="C96" s="14">
+        <v>0</v>
+      </c>
+      <c r="D96" s="14">
+        <v>0</v>
+      </c>
+      <c r="E96" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F96" s="14">
+        <v>0</v>
+      </c>
+      <c r="G96" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="H96" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="I96" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="K96" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B97" s="14">
+        <v>0</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0</v>
+      </c>
+      <c r="D97" s="14">
+        <v>0</v>
+      </c>
+      <c r="E97" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F97" s="14">
+        <v>0</v>
+      </c>
+      <c r="G97" s="14">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="I97" s="14">
+        <v>0</v>
+      </c>
+      <c r="J97" s="14">
+        <v>0</v>
+      </c>
+      <c r="K97" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B98" s="14">
+        <v>0</v>
+      </c>
+      <c r="C98" s="14">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14">
+        <v>0</v>
+      </c>
+      <c r="E98" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="F98" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G98" s="14">
+        <v>0.43</v>
+      </c>
+      <c r="H98" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="I98" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K98" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="14">
+        <v>0</v>
+      </c>
+      <c r="C99" s="14">
+        <v>0</v>
+      </c>
+      <c r="D99" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="E99" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="F99" s="14">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="H99" s="14">
+        <v>1</v>
+      </c>
+      <c r="I99" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="J99" s="14">
+        <v>0</v>
+      </c>
+      <c r="K99" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="14">
+        <v>0</v>
+      </c>
+      <c r="C100" s="14">
+        <v>0</v>
+      </c>
+      <c r="D100" s="14">
+        <v>0</v>
+      </c>
+      <c r="E100" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="F100" s="14">
+        <v>0</v>
+      </c>
+      <c r="G100" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H100" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I100" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J100" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="K100" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C101" s="14">
+        <v>0</v>
+      </c>
+      <c r="D101" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="E101" s="14">
+        <v>1</v>
+      </c>
+      <c r="F101" s="14">
+        <v>0</v>
+      </c>
+      <c r="G101" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H101" s="14">
+        <v>1</v>
+      </c>
+      <c r="I101" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="K101" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B102" s="14">
+        <v>0</v>
+      </c>
+      <c r="C102" s="14">
+        <v>0</v>
+      </c>
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <v>0</v>
+      </c>
+      <c r="F102" s="14">
+        <v>0</v>
+      </c>
+      <c r="G102" s="14">
+        <v>0</v>
+      </c>
+      <c r="H102" s="14">
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
+        <v>0</v>
+      </c>
+      <c r="J102" s="14">
+        <v>0</v>
+      </c>
+      <c r="K102" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B103" s="14">
+        <v>0</v>
+      </c>
+      <c r="C103" s="14">
+        <v>0</v>
+      </c>
+      <c r="D103" s="14">
+        <v>0</v>
+      </c>
+      <c r="E103" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="F103" s="14">
+        <v>0</v>
+      </c>
+      <c r="G103" s="14">
+        <v>0</v>
+      </c>
+      <c r="H103" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="I103" s="14">
+        <v>0</v>
+      </c>
+      <c r="J103" s="14">
+        <v>0</v>
+      </c>
+      <c r="K103" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B104" s="14">
+        <v>0</v>
+      </c>
+      <c r="C104" s="14">
+        <v>0</v>
+      </c>
+      <c r="D104" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="E104" s="14">
+        <v>0</v>
+      </c>
+      <c r="F104" s="14">
+        <v>0</v>
+      </c>
+      <c r="G104" s="14">
+        <v>0</v>
+      </c>
+      <c r="H104" s="14">
+        <v>1</v>
+      </c>
+      <c r="I104" s="14">
+        <v>1</v>
+      </c>
+      <c r="J104" s="14">
+        <v>1</v>
+      </c>
+      <c r="K104" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B105" s="14">
+        <v>0</v>
+      </c>
+      <c r="C105" s="14">
+        <v>0</v>
+      </c>
+      <c r="D105" s="14">
+        <v>0</v>
+      </c>
+      <c r="E105" s="14">
+        <v>0</v>
+      </c>
+      <c r="F105" s="14">
+        <v>0</v>
+      </c>
+      <c r="G105" s="14">
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <v>0</v>
+      </c>
+      <c r="I105" s="14">
+        <v>0</v>
+      </c>
+      <c r="J105" s="14">
+        <v>0</v>
+      </c>
+      <c r="K105" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" s="14">
+        <v>0</v>
+      </c>
+      <c r="C106" s="14">
+        <v>0</v>
+      </c>
+      <c r="D106" s="14">
+        <v>0</v>
+      </c>
+      <c r="E106" s="14">
+        <v>0</v>
+      </c>
+      <c r="F106" s="14">
+        <v>0</v>
+      </c>
+      <c r="G106" s="14">
+        <v>0</v>
+      </c>
+      <c r="H106" s="14">
+        <v>0</v>
+      </c>
+      <c r="I106" s="14">
+        <v>0</v>
+      </c>
+      <c r="J106" s="14">
+        <v>0</v>
+      </c>
+      <c r="K106" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="14">
+        <v>0</v>
+      </c>
+      <c r="C107" s="14">
+        <v>0</v>
+      </c>
+      <c r="D107" s="14">
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F107" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G107" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="H107" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="I107" s="14">
+        <v>0.37</v>
+      </c>
+      <c r="J107" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="K107" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B108" s="14">
+        <v>0</v>
+      </c>
+      <c r="C108" s="14">
+        <v>0</v>
+      </c>
+      <c r="D108" s="14">
+        <v>0</v>
+      </c>
+      <c r="E108" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="F108" s="14">
+        <v>0</v>
+      </c>
+      <c r="G108" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H108" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I108" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J108" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K108" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B109" s="14">
+        <v>0</v>
+      </c>
+      <c r="C109" s="14">
+        <v>0</v>
+      </c>
+      <c r="D109" s="14">
+        <v>0</v>
+      </c>
+      <c r="E109" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F109" s="14">
+        <v>0</v>
+      </c>
+      <c r="G109" s="14">
+        <v>0</v>
+      </c>
+      <c r="H109" s="14">
+        <v>0</v>
+      </c>
+      <c r="I109" s="14">
+        <v>0</v>
+      </c>
+      <c r="J109" s="14">
+        <v>0</v>
+      </c>
+      <c r="K109" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="14">
+        <v>0</v>
+      </c>
+      <c r="C110" s="14">
+        <v>0</v>
+      </c>
+      <c r="D110" s="14">
+        <v>0</v>
+      </c>
+      <c r="E110" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="F110" s="14">
+        <v>0</v>
+      </c>
+      <c r="G110" s="14">
+        <v>0</v>
+      </c>
+      <c r="H110" s="14">
+        <v>0</v>
+      </c>
+      <c r="I110" s="14">
+        <v>0</v>
+      </c>
+      <c r="J110" s="14">
+        <v>0</v>
+      </c>
+      <c r="K110" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B111" s="14">
+        <v>0</v>
+      </c>
+      <c r="C111" s="14">
+        <v>0</v>
+      </c>
+      <c r="D111" s="14">
+        <v>0</v>
+      </c>
+      <c r="E111" s="14">
+        <v>0</v>
+      </c>
+      <c r="F111" s="14">
+        <v>0</v>
+      </c>
+      <c r="G111" s="14">
+        <v>0</v>
+      </c>
+      <c r="H111" s="14">
+        <v>0</v>
+      </c>
+      <c r="I111" s="14">
+        <v>0</v>
+      </c>
+      <c r="J111" s="14">
+        <v>0</v>
+      </c>
+      <c r="K111" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B112" s="14">
+        <v>0</v>
+      </c>
+      <c r="C112" s="14">
+        <v>0</v>
+      </c>
+      <c r="D112" s="14">
+        <v>0</v>
+      </c>
+      <c r="E112" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F112" s="14">
+        <v>0</v>
+      </c>
+      <c r="G112" s="14">
+        <v>0</v>
+      </c>
+      <c r="H112" s="14">
+        <v>0</v>
+      </c>
+      <c r="I112" s="14">
+        <v>0</v>
+      </c>
+      <c r="J112" s="14">
+        <v>0</v>
+      </c>
+      <c r="K112" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B113" s="14">
+        <v>0</v>
+      </c>
+      <c r="C113" s="14">
+        <v>0</v>
+      </c>
+      <c r="D113" s="14">
+        <v>0</v>
+      </c>
+      <c r="E113" s="14">
+        <v>0</v>
+      </c>
+      <c r="F113" s="14">
+        <v>0</v>
+      </c>
+      <c r="G113" s="14">
+        <v>0</v>
+      </c>
+      <c r="H113" s="14">
+        <v>0</v>
+      </c>
+      <c r="I113" s="14">
+        <v>0</v>
+      </c>
+      <c r="J113" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K113" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B114" s="14">
+        <v>0</v>
+      </c>
+      <c r="C114" s="14">
+        <v>0</v>
+      </c>
+      <c r="D114" s="14">
+        <v>0</v>
+      </c>
+      <c r="E114" s="14">
+        <v>0</v>
+      </c>
+      <c r="F114" s="14">
+        <v>0</v>
+      </c>
+      <c r="G114" s="14">
+        <v>0</v>
+      </c>
+      <c r="H114" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="I114" s="14">
+        <v>0</v>
+      </c>
+      <c r="J114" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="K114" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="14">
+        <v>0</v>
+      </c>
+      <c r="C115" s="14">
+        <v>0</v>
+      </c>
+      <c r="D115" s="14">
+        <v>0</v>
+      </c>
+      <c r="E115" s="14">
+        <v>0</v>
+      </c>
+      <c r="F115" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="G115" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="H115" s="14">
+        <v>0</v>
+      </c>
+      <c r="I115" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="J115" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K115" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B116" s="14">
+        <v>0</v>
+      </c>
+      <c r="C116" s="14">
+        <v>0</v>
+      </c>
+      <c r="D116" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="E116" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="F116" s="14">
+        <v>0</v>
+      </c>
+      <c r="G116" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H116" s="14">
+        <v>1</v>
+      </c>
+      <c r="I116" s="14">
+        <v>0</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="K116" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="14">
+        <v>0</v>
+      </c>
+      <c r="C117" s="14">
+        <v>0</v>
+      </c>
+      <c r="D117" s="14">
+        <v>0</v>
+      </c>
+      <c r="E117" s="14">
+        <v>0</v>
+      </c>
+      <c r="F117" s="14">
+        <v>0</v>
+      </c>
+      <c r="G117" s="14">
+        <v>0</v>
+      </c>
+      <c r="H117" s="14">
+        <v>0</v>
+      </c>
+      <c r="I117" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J117" s="14">
+        <v>0</v>
+      </c>
+      <c r="K117" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="14">
+        <v>0</v>
+      </c>
+      <c r="C118" s="14">
+        <v>0</v>
+      </c>
+      <c r="D118" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="E118" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="F118" s="14">
+        <v>0</v>
+      </c>
+      <c r="G118" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="H118" s="14">
+        <v>1</v>
+      </c>
+      <c r="I118" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J118" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="K118" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="14">
+        <v>0</v>
+      </c>
+      <c r="C119" s="14">
+        <v>0</v>
+      </c>
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="H119" s="14">
+        <v>0</v>
+      </c>
+      <c r="I119" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="J119" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="K119" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="14">
+        <v>0</v>
+      </c>
+      <c r="C120" s="14">
+        <v>0</v>
+      </c>
+      <c r="D120" s="14">
+        <v>0</v>
+      </c>
+      <c r="E120" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="F120" s="14">
+        <v>0</v>
+      </c>
+      <c r="G120" s="14">
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <v>1</v>
+      </c>
+      <c r="I120" s="14">
+        <v>0</v>
+      </c>
+      <c r="J120" s="14">
+        <v>0</v>
+      </c>
+      <c r="K120" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" s="14">
+        <v>0</v>
+      </c>
+      <c r="C121" s="14">
+        <v>0</v>
+      </c>
+      <c r="D121" s="14">
+        <v>0</v>
+      </c>
+      <c r="E121" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="F121" s="14">
+        <v>0</v>
+      </c>
+      <c r="G121" s="14">
+        <v>0</v>
+      </c>
+      <c r="H121" s="14">
+        <v>0</v>
+      </c>
+      <c r="I121" s="14">
+        <v>0</v>
+      </c>
+      <c r="J121" s="14">
+        <v>0</v>
+      </c>
+      <c r="K121" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" s="14">
+        <v>0</v>
+      </c>
+      <c r="C122" s="14">
+        <v>0</v>
+      </c>
+      <c r="D122" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="E122" s="14">
+        <v>0</v>
+      </c>
+      <c r="F122" s="14">
+        <v>0</v>
+      </c>
+      <c r="G122" s="14">
+        <v>0</v>
+      </c>
+      <c r="H122" s="14">
+        <v>1</v>
+      </c>
+      <c r="I122" s="14">
+        <v>0</v>
+      </c>
+      <c r="J122" s="14">
+        <v>0</v>
+      </c>
+      <c r="K122" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B123" s="14">
+        <v>0</v>
+      </c>
+      <c r="C123" s="14">
+        <v>0</v>
+      </c>
+      <c r="D123" s="14">
+        <v>0</v>
+      </c>
+      <c r="E123" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F123" s="14">
+        <v>0</v>
+      </c>
+      <c r="G123" s="14">
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="I123" s="14">
+        <v>0</v>
+      </c>
+      <c r="J123" s="14">
+        <v>0</v>
+      </c>
+      <c r="K123" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="14">
+        <v>0</v>
+      </c>
+      <c r="C124" s="14">
+        <v>0</v>
+      </c>
+      <c r="D124" s="14">
+        <v>1</v>
+      </c>
+      <c r="E124" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="F124" s="14">
+        <v>0</v>
+      </c>
+      <c r="G124" s="14">
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <v>1</v>
+      </c>
+      <c r="I124" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="J124" s="14">
+        <v>0</v>
+      </c>
+      <c r="K124" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="14">
+        <v>0</v>
+      </c>
+      <c r="C125" s="14">
+        <v>0</v>
+      </c>
+      <c r="D125" s="14">
+        <v>0</v>
+      </c>
+      <c r="E125" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="F125" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G125" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="H125" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="I125" s="14">
+        <v>0.63</v>
+      </c>
+      <c r="J125" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K125" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" s="14">
+        <v>0</v>
+      </c>
+      <c r="C126" s="14">
+        <v>0</v>
+      </c>
+      <c r="D126" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="14">
+        <v>0</v>
+      </c>
+      <c r="G126" s="14">
+        <v>0</v>
+      </c>
+      <c r="H126" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="I126" s="14">
+        <v>0</v>
+      </c>
+      <c r="J126" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="K126" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="14">
-        <f>COUNTIF(B5:B99,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="16">
-        <f t="shared" ref="C100:J100" si="2">COUNTIF(C5:C99,"&gt;=0.1")</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="16">
+      <c r="B130" s="14">
+        <f>COUNTIF(B5:B126,"&gt;=0.1")</f>
+        <v>4</v>
+      </c>
+      <c r="C130" s="24">
+        <f t="shared" ref="C130:J130" si="2">COUNTIF(C5:C126,"&gt;=0.1")</f>
+        <v>3</v>
+      </c>
+      <c r="D130" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="16">
+        <v>11</v>
+      </c>
+      <c r="E130" s="24">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F100" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="16">
+        <v>61</v>
+      </c>
+      <c r="F130" s="24">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H100" s="16">
+      <c r="G130" s="24">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I100" s="16">
+        <v>28</v>
+      </c>
+      <c r="H130" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="16">
+        <v>44</v>
+      </c>
+      <c r="I130" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="24">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="14">
-        <f>B100/COUNT(B5:B99)</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="16">
-        <f t="shared" ref="C101:J101" si="3">C100/COUNT(C5:C99)</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="16">
-        <f t="shared" si="3"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="F101" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="16">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H101" s="16">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I101" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B131" s="14">
+        <f>B130/COUNT(B5:B99)</f>
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="C131" s="16">
+        <f>C130/COUNT(C5:C99)</f>
+        <v>3.1578947368421054E-2</v>
+      </c>
+      <c r="D131" s="16">
+        <f>D130/COUNT(D5:D99)</f>
+        <v>0.11578947368421053</v>
+      </c>
+      <c r="E131" s="16">
+        <f>E130/COUNT(E5:E99)</f>
+        <v>0.64210526315789473</v>
+      </c>
+      <c r="F131" s="16">
+        <f>F130/COUNT(F5:F99)</f>
+        <v>3.1578947368421054E-2</v>
+      </c>
+      <c r="G131" s="16">
+        <f>G130/COUNT(G5:G99)</f>
+        <v>0.29473684210526313</v>
+      </c>
+      <c r="H131" s="16">
+        <f>H130/COUNT(H5:H99)</f>
+        <v>0.4631578947368421</v>
+      </c>
+      <c r="I131" s="16">
+        <f>I130/COUNT(I5:I99)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J131" s="16">
+        <f>J130/COUNT(J5:J99)</f>
+        <v>0.22105263157894736</v>
       </c>
     </row>
   </sheetData>
@@ -9118,7 +12542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
@@ -9132,17 +12556,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -13106,17 +16530,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -13859,17 +17283,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">

--- a/result_v2(8.23).xlsx
+++ b/result_v2(8.23).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara\Documents\MR-of-ML\linear models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AD0A97-0916-418B-BA26-D7FD298D4521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF58B56-49F4-4845-B251-B715FD0ABD18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GD" sheetId="1" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1440,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1729,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1745,21 +1748,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1873,7 +1876,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K72" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
+        <f t="shared" ref="K4:K69" si="0">COUNTIF(B4:J4,"&gt;=0.1")</f>
         <v>4</v>
       </c>
       <c r="M4" s="1">
@@ -1884,47 +1887,50 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>0.76</v>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="D5" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.23</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.03</v>
+      <c r="G5" s="2">
+        <v>0.21</v>
       </c>
       <c r="H5" s="2">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1932,41 +1938,41 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.91</v>
+      <c r="D6" s="1">
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.21</v>
+      <c r="G6" s="1">
+        <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1977,17 +1983,17 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.4</v>
+      <c r="E7" s="1">
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.01</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1997,18 +2003,18 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2017,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.28000000000000003</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2039,57 +2045,63 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="10">
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0.48</v>
+        <v>0.97</v>
       </c>
       <c r="F9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.26</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.02</v>
       </c>
       <c r="H9" s="2">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>0.02</v>
       </c>
       <c r="J9" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2098,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.08</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2126,15 +2138,12 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2145,38 +2154,38 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.97</v>
+      <c r="E11" s="4">
+        <v>0.04</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
+        <v>0.04</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.03</v>
       </c>
       <c r="I11" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2188,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H12" s="2">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -2209,16 +2218,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="1">
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2226,80 +2235,83 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.04</v>
+      <c r="D13" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.56999999999999995</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.03</v>
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
+      <c r="J13" s="2">
+        <v>0.14000000000000001</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
+      <c r="D14" s="2">
+        <v>0.95</v>
       </c>
       <c r="E14" s="2">
-        <v>0.2</v>
+        <v>0.78</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
+      <c r="G14" s="2">
+        <v>0.19</v>
       </c>
       <c r="H14" s="2">
-        <v>0.4</v>
+        <v>0.97</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2307,41 +2319,41 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
+      <c r="D15" s="2">
+        <v>0.88</v>
       </c>
       <c r="E15" s="2">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H15" s="2">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2349,41 +2361,41 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.95</v>
+      <c r="D16" s="1">
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.01</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.69</v>
-      </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
+      <c r="I16" s="2">
+        <v>0.88</v>
       </c>
       <c r="J16" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2391,41 +2403,41 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <v>0.95</v>
+      <c r="D17" s="1">
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G17" s="2">
-        <v>0.19</v>
+        <v>0.54</v>
       </c>
       <c r="H17" s="2">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -2433,83 +2445,83 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
         <v>0.88</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
+      <c r="J18" s="2">
+        <v>0.77</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.94</v>
       </c>
       <c r="E19" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
         <v>0.01</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.77</v>
+      <c r="J19" s="1">
+        <v>0.02</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -2520,38 +2532,38 @@
       <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
+      <c r="E20" s="1">
+        <v>0.05</v>
       </c>
       <c r="F20" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
+        <v>0.12</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.05</v>
       </c>
       <c r="I20" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2562,80 +2574,80 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.32</v>
+      <c r="E21" s="1">
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.01</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.77</v>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.01</v>
       </c>
       <c r="I22" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -2646,80 +2658,80 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
-        <v>0.05</v>
+      <c r="E23" s="2">
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G23" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.05</v>
+        <v>0.54</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -2730,17 +2742,17 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
+      <c r="E25" s="2">
+        <v>0.49</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.01</v>
+        <v>0.09</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.02</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -2750,18 +2762,18 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2772,80 +2784,80 @@
       <c r="D26" s="1">
         <v>0</v>
       </c>
-      <c r="E26" s="2">
-        <v>1</v>
+      <c r="E26" s="1">
+        <v>0.01</v>
       </c>
       <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
         <v>0.06</v>
       </c>
-      <c r="G26" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
+      <c r="H26" s="3">
+        <v>0.01</v>
       </c>
       <c r="I26" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.2</v>
+        <v>44</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -2857,37 +2869,37 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.02</v>
+      <c r="G28" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.24</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -2898,38 +2910,38 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
-        <v>0.01</v>
+      <c r="E29" s="2">
+        <v>0.33</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H29" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.83</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -2940,17 +2952,17 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
-        <v>0.01</v>
+      <c r="E30" s="2">
+        <v>0.82</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.02</v>
+      <c r="G30" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.91</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2960,60 +2972,60 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.92</v>
       </c>
       <c r="E31" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
+        <v>0.94</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.51</v>
       </c>
       <c r="G31" s="2">
-        <v>0.39</v>
+        <v>0.97</v>
       </c>
       <c r="H31" s="2">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
         <v>0.01</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -3024,38 +3036,38 @@
       <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.33</v>
+      <c r="E32" s="1">
+        <v>0.02</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
-      <c r="G32" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.83</v>
+      <c r="G32" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -3067,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="H33" s="2">
-        <v>0.91</v>
+        <v>0.74</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -3092,54 +3104,54 @@
         <v>0</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -3150,18 +3162,18 @@
       <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H35" s="1">
         <v>0.02</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.01</v>
-      </c>
       <c r="I35" s="1">
         <v>0</v>
       </c>
@@ -3176,12 +3188,12 @@
         <v>0</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -3193,37 +3205,37 @@
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.74</v>
+        <v>0.69</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.01</v>
       </c>
       <c r="I36" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -3234,80 +3246,86 @@
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="4">
-        <v>0.02</v>
+      <c r="E37" s="2">
+        <v>0.52</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G37" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.51</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.34</v>
       </c>
       <c r="E38" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
+        <v>0.87</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.19</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -3318,23 +3336,23 @@
       <c r="D39" s="1">
         <v>0</v>
       </c>
-      <c r="E39" s="2">
-        <v>0.7</v>
+      <c r="E39" s="1">
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="G39" s="2">
-        <v>0.69</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" si="0"/>
@@ -3344,12 +3362,15 @@
         <v>0</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -3361,85 +3382,82 @@
         <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="H40" s="1">
         <v>0.01</v>
       </c>
-      <c r="G40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.51</v>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.34</v>
+        <v>58</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.18</v>
+        <v>0.93</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.01</v>
       </c>
       <c r="G41" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.66</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="I41" s="2">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J41" s="2">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -3450,41 +3468,38 @@
       <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
+      <c r="E42" s="2">
+        <v>0.97</v>
       </c>
       <c r="F42" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
+      <c r="I42" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.01</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -3495,14 +3510,14 @@
       <c r="D43" s="1">
         <v>0</v>
       </c>
-      <c r="E43" s="2">
-        <v>0.65</v>
+      <c r="E43" s="1">
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
-      <c r="G43" s="2">
-        <v>0.45</v>
+      <c r="G43" s="1">
+        <v>0.06</v>
       </c>
       <c r="H43" s="1">
         <v>0.01</v>
@@ -3515,18 +3530,18 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -3537,41 +3552,38 @@
       <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E44" s="2">
-        <v>0.93</v>
+      <c r="E44" s="1">
+        <v>0</v>
       </c>
       <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H44" s="1">
         <v>0.01</v>
       </c>
-      <c r="G44" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.11</v>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -3582,64 +3594,72 @@
       <c r="D45" s="1">
         <v>0</v>
       </c>
-      <c r="E45" s="2">
-        <v>0.97</v>
+      <c r="E45" s="1">
+        <v>0</v>
       </c>
       <c r="F45" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>98</v>
+        <v>0.06</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1">
+        <f t="shared" ref="B46:J46" si="1">B45</f>
         <v>0</v>
       </c>
       <c r="C46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46" s="1">
+        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="H46" s="1">
         <v>0.01</v>
       </c>
       <c r="I46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="1">
@@ -3650,12 +3670,12 @@
         <v>1</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -3664,26 +3684,26 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E47" s="1">
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J47" s="1">
         <v>0.06</v>
       </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
       <c r="K47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3692,12 +3712,12 @@
         <v>1</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -3712,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G48" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -3734,46 +3754,38 @@
         <v>1</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="1">
-        <f t="shared" ref="B49:J49" si="1">B48</f>
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
       <c r="H49" s="1">
         <v>0.01</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="1">
@@ -3784,12 +3796,12 @@
         <v>1</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -3798,40 +3810,40 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.1</v>
       </c>
       <c r="F50" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.36</v>
       </c>
       <c r="I50" s="1">
         <v>0.04</v>
       </c>
       <c r="J50" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -3843,163 +3855,163 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E53" s="1">
         <v>0.01</v>
       </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
         <v>0.06</v>
       </c>
-      <c r="H52" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.08</v>
-      </c>
       <c r="H54" s="2">
-        <v>0.11</v>
+        <v>0.93</v>
       </c>
       <c r="I54" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.04</v>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.12</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>132</v>
+      <c r="A55" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -4007,41 +4019,41 @@
       <c r="C55" s="1">
         <v>0</v>
       </c>
-      <c r="D55" s="1">
-        <v>0</v>
+      <c r="D55" s="2">
+        <v>0.93</v>
       </c>
       <c r="E55" s="2">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="2">
-        <v>0.13</v>
+        <v>0.91</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
       </c>
       <c r="I55" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -4050,82 +4062,82 @@
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.01</v>
+        <v>0.9</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.72</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="1">
-        <v>0.04</v>
+      <c r="G56" s="2">
+        <v>0.27</v>
       </c>
       <c r="H56" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0.11</v>
+        <v>0.81</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.02</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.43</v>
       </c>
       <c r="D57" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-      <c r="G57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J57" s="1">
         <v>0.06</v>
       </c>
-      <c r="H57" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0.12</v>
-      </c>
       <c r="K57" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -4134,40 +4146,40 @@
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E58" s="2">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>0.91</v>
+        <v>0.42</v>
       </c>
       <c r="H58" s="2">
-        <v>1</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
+        <v>0.17</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.04</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -4176,82 +4188,82 @@
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E59" s="2">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G59" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0.39</v>
+      <c r="G59" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.01</v>
       </c>
       <c r="J59" s="1">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.02</v>
+        <v>127</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G60" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H60" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0.06</v>
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.47</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -4260,40 +4272,40 @@
         <v>0</v>
       </c>
       <c r="D61" s="2">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
       <c r="E61" s="2">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
-      <c r="G61" s="2">
-        <v>0.42</v>
+      <c r="G61" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H61" s="2">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="I61" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="J61" s="4">
-        <v>0.04</v>
+        <v>0.23</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -4301,41 +4313,41 @@
       <c r="C62" s="1">
         <v>0</v>
       </c>
-      <c r="D62" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.71</v>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H62" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -4343,26 +4355,26 @@
       <c r="C63" s="1">
         <v>0</v>
       </c>
-      <c r="D63" s="1">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
-        <v>7.0000000000000007E-2</v>
+      <c r="D63" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="H63" s="2">
         <v>1</v>
       </c>
-      <c r="I63" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0.47</v>
+      <c r="I63" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.04</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="0"/>
@@ -4372,12 +4384,12 @@
         <v>0</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -4386,40 +4398,40 @@
         <v>0</v>
       </c>
       <c r="D64" s="2">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="E64" s="2">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1">
-        <v>7.0000000000000007E-2</v>
+      <c r="G64" s="2">
+        <v>0.26</v>
       </c>
       <c r="H64" s="2">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J64" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M64" s="1">
         <v>0</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -4430,17 +4442,17 @@
       <c r="D65" s="1">
         <v>0</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
+      <c r="E65" s="2">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
-        <v>0.02</v>
+      <c r="G65" s="2">
+        <v>0.12</v>
       </c>
       <c r="H65" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -4450,18 +4462,18 @@
       </c>
       <c r="K65" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>143</v>
+        <v>0</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -4470,25 +4482,25 @@
         <v>0</v>
       </c>
       <c r="D66" s="2">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="E66" s="2">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>0.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H66" s="2">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0.04</v>
+        <v>0.22</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0.09</v>
       </c>
       <c r="J66" s="1">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1">
         <f t="shared" si="0"/>
@@ -4498,12 +4510,12 @@
         <v>0</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -4512,40 +4524,40 @@
         <v>0</v>
       </c>
       <c r="D67" s="2">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="E67" s="2">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
-      <c r="G67" s="2">
-        <v>0.26</v>
+      <c r="G67" s="1">
+        <v>0.06</v>
       </c>
       <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.06</v>
       </c>
       <c r="J67" s="1">
         <v>0.03</v>
       </c>
       <c r="K67" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M67" s="1">
         <v>0</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -4556,14 +4568,14 @@
       <c r="D68" s="1">
         <v>0</v>
       </c>
-      <c r="E68" s="2">
-        <v>0.57999999999999996</v>
+      <c r="E68" s="1">
+        <v>0</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="2">
-        <v>0.12</v>
+      <c r="G68" s="1">
+        <v>0.04</v>
       </c>
       <c r="H68" s="1">
         <v>0.01</v>
@@ -4576,18 +4588,15 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>152</v>
+        <v>0</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -4595,41 +4604,38 @@
       <c r="C69" s="1">
         <v>0</v>
       </c>
-      <c r="D69" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0.91</v>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
       </c>
-      <c r="G69" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0.09</v>
+      <c r="G69" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.01</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M69" s="1">
         <v>0</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -4637,11 +4643,11 @@
       <c r="C70" s="1">
         <v>0</v>
       </c>
-      <c r="D70" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="E70" s="2">
-        <v>0.88</v>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -4649,245 +4655,242 @@
       <c r="G70" s="1">
         <v>0.06</v>
       </c>
-      <c r="H70" s="2">
-        <v>0.19</v>
+      <c r="H70" s="1">
+        <v>0.01</v>
       </c>
       <c r="I70" s="1">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M70" s="1">
         <v>0</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="H71" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0</v>
-      </c>
-      <c r="G72" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H72" s="1">
-        <v>0</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0</v>
-      </c>
-      <c r="K72" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A72" s="4"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="1">
+        <f>COUNTIF(B2:B70,"&gt;=0.1")</f>
+        <v>6</v>
+      </c>
+      <c r="C74" s="25">
+        <f t="shared" ref="C74:J74" si="2">COUNTIF(C2:C70,"&gt;=0.1")</f>
+        <v>5</v>
+      </c>
+      <c r="D74" s="25">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="E74" s="25">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F74" s="25">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G74" s="25">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H74" s="25">
+        <f>COUNTIF(H2:H70,"&gt;=0.1")+4</f>
+        <v>41</v>
+      </c>
+      <c r="I74" s="25">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J74" s="25">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="1">
+        <f xml:space="preserve"> B74/COUNT(B3:B73)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="C75" s="13">
+        <f xml:space="preserve"> C74/COUNT(C3:C73)</f>
+        <v>7.3529411764705885E-2</v>
+      </c>
+      <c r="D75" s="13">
+        <f xml:space="preserve"> D74/COUNT(D3:D73)</f>
+        <v>0.30882352941176472</v>
+      </c>
+      <c r="E75" s="13">
+        <f xml:space="preserve"> E74/COUNT(E3:E73)</f>
+        <v>0.61764705882352944</v>
+      </c>
+      <c r="F75" s="13">
+        <f xml:space="preserve"> F74/COUNT(F3:F73)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="G75" s="13">
+        <f xml:space="preserve"> G74/COUNT(G3:G73)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="H75" s="1">
+        <f xml:space="preserve"> H74/(COUNT(H3:H73)+4)</f>
+        <v>0.6029411764705882</v>
+      </c>
+      <c r="I75" s="1">
+        <f xml:space="preserve"> I74/COUNT(I3:I73)</f>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="J75" s="13">
+        <f xml:space="preserve"> J74/COUNT(J3:J73)</f>
+        <v>0.19117647058823528</v>
+      </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="1">
-        <f>COUNTIF(B2:B73,"&gt;=0.1")</f>
-        <v>7</v>
-      </c>
-      <c r="C77" s="13">
-        <f t="shared" ref="C77:J77" si="2">COUNTIF(C2:C73,"&gt;=0.1")</f>
-        <v>5</v>
-      </c>
-      <c r="D77" s="13">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E77" s="13">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="F77" s="13">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G77" s="13">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="H77" s="13">
-        <f>COUNTIF(H2:H73,"&gt;=0.1")+4</f>
-        <v>44</v>
-      </c>
-      <c r="I77" s="13">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="J77" s="13">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="1">
-        <f xml:space="preserve"> B77/COUNT(B3:B76)</f>
-        <v>9.8591549295774641E-2</v>
-      </c>
-      <c r="C78" s="13">
-        <f t="shared" ref="C78:G78" si="3" xml:space="preserve"> C77/COUNT(C3:C76)</f>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="D78" s="13">
-        <f t="shared" si="3"/>
-        <v>0.29577464788732394</v>
-      </c>
-      <c r="E78" s="13">
-        <f t="shared" si="3"/>
-        <v>0.61971830985915488</v>
-      </c>
-      <c r="F78" s="13">
-        <f t="shared" si="3"/>
-        <v>5.6338028169014086E-2</v>
-      </c>
-      <c r="G78" s="13">
-        <f t="shared" si="3"/>
-        <v>0.40845070422535212</v>
-      </c>
-      <c r="H78" s="1">
-        <f xml:space="preserve"> H77/(COUNT(H3:H76)+4)</f>
-        <v>0.61971830985915488</v>
+        <v>244</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0.62</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78:J78" si="4" xml:space="preserve"> I77/COUNT(I3:I76)</f>
-        <v>0.19718309859154928</v>
-      </c>
-      <c r="J78" s="13">
-        <f t="shared" si="4"/>
-        <v>0.18309859154929578</v>
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <f>COUNTIF(B78:J78,"&gt;=0.1")</f>
+        <v>2</v>
+      </c>
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <f>COUNTIF(B79:J79,"&gt;=0.1")</f>
+        <v>2</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H80" s="1">
+      <c r="B80" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D80" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G80" s="2">
         <v>0.26</v>
       </c>
+      <c r="H80" s="2">
+        <v>0.36</v>
+      </c>
       <c r="I80" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J80" s="1">
         <v>0.04</v>
       </c>
-      <c r="K80" s="14" t="s">
-        <v>242</v>
+      <c r="K80" s="1">
+        <f>COUNTIF(B80:J80,"&gt;=0.1")</f>
+        <v>3</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4904,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4928,20 +4931,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
@@ -7722,40 +7725,40 @@
         <v>112</v>
       </c>
       <c r="B74" s="7">
-        <f>COUNTIF(B1:B72,"&gt;=0.1")</f>
-        <v>10</v>
-      </c>
-      <c r="C74" s="13">
-        <f t="shared" ref="C74:J74" si="2">COUNTIF(C1:C72,"&gt;=0.1")</f>
-        <v>11</v>
-      </c>
-      <c r="D74" s="13">
+        <f>COUNTIF(B1:B72,"&gt;=0.05")</f>
+        <v>15</v>
+      </c>
+      <c r="C74" s="25">
+        <f t="shared" ref="C74:J74" si="2">COUNTIF(C1:C72,"&gt;=0.05")</f>
+        <v>14</v>
+      </c>
+      <c r="D74" s="25">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E74" s="25">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F74" s="25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G74" s="25">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="E74" s="13">
+      <c r="H74" s="25">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="F74" s="13">
+        <v>42</v>
+      </c>
+      <c r="I74" s="25">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G74" s="13">
+        <v>24</v>
+      </c>
+      <c r="J74" s="25">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="H74" s="13">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="I74" s="13">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J74" s="13">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K74" s="13"/>
     </row>
@@ -7765,39 +7768,39 @@
       </c>
       <c r="B75" s="7">
         <f xml:space="preserve"> B74/COUNT(B1:B72)</f>
-        <v>0.14285714285714285</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C75" s="13">
         <f t="shared" ref="C75:J75" si="3" xml:space="preserve"> C74/COUNT(C1:C72)</f>
-        <v>0.15714285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="D75" s="13">
         <f t="shared" si="3"/>
-        <v>0.42857142857142855</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="E75" s="13">
         <f t="shared" si="3"/>
-        <v>0.47142857142857142</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="F75" s="13">
         <f t="shared" si="3"/>
-        <v>0.17142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G75" s="13">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H75" s="13">
         <f t="shared" si="3"/>
-        <v>0.55714285714285716</v>
+        <v>0.6</v>
       </c>
       <c r="I75" s="13">
         <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="J75" s="13">
         <f t="shared" si="3"/>
-        <v>0.37142857142857144</v>
+        <v>0.44285714285714284</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -7831,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="J126" sqref="J126"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7845,17 +7848,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -12492,39 +12495,39 @@
         <v>158</v>
       </c>
       <c r="B131" s="14">
-        <f>B130/COUNT(B5:B99)</f>
+        <f t="shared" ref="B131:J131" si="3">B130/COUNT(B5:B99)</f>
         <v>4.2105263157894736E-2</v>
       </c>
       <c r="C131" s="16">
-        <f>C130/COUNT(C5:C99)</f>
+        <f t="shared" si="3"/>
         <v>3.1578947368421054E-2</v>
       </c>
       <c r="D131" s="16">
-        <f>D130/COUNT(D5:D99)</f>
+        <f t="shared" si="3"/>
         <v>0.11578947368421053</v>
       </c>
       <c r="E131" s="16">
-        <f>E130/COUNT(E5:E99)</f>
+        <f t="shared" si="3"/>
         <v>0.64210526315789473</v>
       </c>
       <c r="F131" s="16">
-        <f>F130/COUNT(F5:F99)</f>
+        <f t="shared" si="3"/>
         <v>3.1578947368421054E-2</v>
       </c>
       <c r="G131" s="16">
-        <f>G130/COUNT(G5:G99)</f>
+        <f t="shared" si="3"/>
         <v>0.29473684210526313</v>
       </c>
       <c r="H131" s="16">
-        <f>H130/COUNT(H5:H99)</f>
+        <f t="shared" si="3"/>
         <v>0.4631578947368421</v>
       </c>
       <c r="I131" s="16">
-        <f>I130/COUNT(I5:I99)</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="J131" s="16">
-        <f>J130/COUNT(J5:J99)</f>
+        <f t="shared" si="3"/>
         <v>0.22105263157894736</v>
       </c>
     </row>
@@ -12556,17 +12559,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -16530,17 +16533,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
@@ -17283,17 +17286,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
